--- a/data/taxon genera files/O genera reduced.xlsx
+++ b/data/taxon genera files/O genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="882">
   <si>
     <r>
       <t>Oblatinella arcuata</t>
@@ -6597,20 +6597,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Scheuring 1970</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ovalipollis yunnanensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Lei </t>
     </r>
   </si>
   <si>
@@ -13112,6 +13098,33 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Yin 1995</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ovalipollis yunnanensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Lei 1978</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ovalipollis indusi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Lei 1978</t>
     </r>
   </si>
 </sst>
@@ -13670,10 +13683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M885"/>
+  <dimension ref="A1:M886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="K341" sqref="K341"/>
+    <sheetView tabSelected="1" topLeftCell="A762" workbookViewId="0">
+      <selection activeCell="J766" sqref="J766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13687,28 +13700,28 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E4" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -13719,7 +13732,7 @@
     </row>
     <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -13744,28 +13757,28 @@
     </row>
     <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E14" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E15" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E16" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E17" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -13774,7 +13787,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
@@ -13791,7 +13804,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
@@ -13804,53 +13817,53 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E20" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E21" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E22" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E23" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E24" s="18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E25" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E26" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -13866,7 +13879,7 @@
     </row>
     <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -13971,24 +13984,24 @@
     </row>
     <row r="53" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E54" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E56" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14013,13 +14026,13 @@
     </row>
     <row r="61" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E62" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14034,18 +14047,18 @@
     </row>
     <row r="65" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E66" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B67" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E67" s="2"/>
     </row>
@@ -14056,7 +14069,7 @@
     </row>
     <row r="69" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E69" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14076,7 +14089,7 @@
     </row>
     <row r="73" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -14087,12 +14100,12 @@
     </row>
     <row r="75" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E75" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B76" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E76" s="1"/>
     </row>
@@ -14103,18 +14116,18 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E79" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B80" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E80" s="1"/>
     </row>
@@ -14135,7 +14148,7 @@
     </row>
     <row r="84" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B84" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E84" s="2"/>
     </row>
@@ -14151,18 +14164,18 @@
     </row>
     <row r="87" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B87" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E88" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B89" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -14178,29 +14191,29 @@
     </row>
     <row r="92" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E93" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B94" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E95" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B96" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E96" s="2"/>
     </row>
@@ -14221,7 +14234,7 @@
     </row>
     <row r="100" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E100" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="101" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14241,7 +14254,7 @@
     </row>
     <row r="104" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E104" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="105" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14256,7 +14269,7 @@
     </row>
     <row r="107" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E107" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="108" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14305,7 +14318,7 @@
       <c r="C116" s="20"/>
       <c r="D116" s="21"/>
       <c r="E116" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F116" s="22"/>
       <c r="G116" s="22"/>
@@ -14323,7 +14336,7 @@
     </row>
     <row r="118" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E118" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -14403,7 +14416,7 @@
     </row>
     <row r="134" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E134" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14428,18 +14441,18 @@
     </row>
     <row r="139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E140" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E141" s="1"/>
     </row>
@@ -14490,12 +14503,12 @@
     </row>
     <row r="151" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E151" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="152" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E152" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="153" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14525,7 +14538,7 @@
     </row>
     <row r="158" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E158" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="159" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14555,7 +14568,7 @@
     </row>
     <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E164" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14570,12 +14583,12 @@
     </row>
     <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E167" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E168" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14600,7 +14613,7 @@
     </row>
     <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -14621,7 +14634,7 @@
     </row>
     <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E177" s="2"/>
     </row>
@@ -14632,7 +14645,7 @@
     </row>
     <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E179" s="1"/>
     </row>
@@ -14653,7 +14666,7 @@
     </row>
     <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B183" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E183" s="2"/>
     </row>
@@ -14669,7 +14682,7 @@
     </row>
     <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E186" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14679,12 +14692,12 @@
     </row>
     <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E188" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B189" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E189" s="2"/>
     </row>
@@ -14695,7 +14708,7 @@
     </row>
     <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B191" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E191" s="2"/>
     </row>
@@ -14706,33 +14719,33 @@
     </row>
     <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E193" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B194" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E195" s="25" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E196" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E197" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E198" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14747,40 +14760,40 @@
     </row>
     <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E201" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B202" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E203" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B204" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E205" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B206" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E207" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14790,18 +14803,18 @@
     </row>
     <row r="209" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B209" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E210" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B211" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E211" s="2"/>
     </row>
@@ -14822,7 +14835,7 @@
     </row>
     <row r="215" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E215" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="216" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -14831,7 +14844,7 @@
       <c r="C216" s="20"/>
       <c r="D216" s="21"/>
       <c r="E216" s="18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F216" s="22"/>
       <c r="G216" s="22"/>
@@ -14844,12 +14857,12 @@
     </row>
     <row r="217" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E217" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B218" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E218" s="2"/>
     </row>
@@ -14860,12 +14873,12 @@
     </row>
     <row r="220" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E220" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B221" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E221" s="1"/>
     </row>
@@ -14876,13 +14889,13 @@
     </row>
     <row r="223" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B223" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E223" s="1"/>
     </row>
     <row r="224" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E224" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14902,7 +14915,7 @@
     </row>
     <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B228" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E228" s="2"/>
     </row>
@@ -14943,7 +14956,7 @@
     </row>
     <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E236" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14973,7 +14986,7 @@
     </row>
     <row r="242" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E242" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="243" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15003,12 +15016,12 @@
     </row>
     <row r="248" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E248" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="249" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E249" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="250" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15018,12 +15031,12 @@
     </row>
     <row r="251" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E251" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="252" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E252" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="253" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15053,7 +15066,7 @@
     </row>
     <row r="258" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E258" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="259" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15138,17 +15151,17 @@
     </row>
     <row r="275" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E275" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="276" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E276" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="277" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E277" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="278" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15188,12 +15201,12 @@
     </row>
     <row r="285" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E285" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="286" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E286" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="287" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15238,7 +15251,7 @@
     </row>
     <row r="295" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B295" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E295" s="2"/>
     </row>
@@ -15249,18 +15262,18 @@
     </row>
     <row r="297" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B297" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E297" s="1"/>
     </row>
     <row r="298" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E298" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="299" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B299" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E299" s="2"/>
     </row>
@@ -15276,13 +15289,13 @@
     </row>
     <row r="302" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B302" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E303" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="304" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15292,7 +15305,7 @@
     </row>
     <row r="305" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B305" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E305" s="1"/>
     </row>
@@ -15308,7 +15321,7 @@
     </row>
     <row r="308" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E308" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="309" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -15318,13 +15331,13 @@
     </row>
     <row r="310" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B310" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E311" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -15334,13 +15347,13 @@
     </row>
     <row r="313" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B313" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E313" s="1"/>
     </row>
     <row r="314" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D314" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E314" s="1"/>
     </row>
@@ -15355,7 +15368,7 @@
       <c r="C316" s="20"/>
       <c r="D316" s="21"/>
       <c r="E316" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G316" s="22"/>
       <c r="H316" s="22"/>
@@ -15377,23 +15390,23 @@
     </row>
     <row r="319" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E319" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="320" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B320" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E321" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B322" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E322" s="1"/>
     </row>
@@ -15404,18 +15417,18 @@
     </row>
     <row r="324" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B324" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E324" s="4"/>
     </row>
     <row r="325" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E325" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B326" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E326" s="2"/>
     </row>
@@ -15441,13 +15454,13 @@
     </row>
     <row r="331" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B331" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E331" s="1"/>
     </row>
     <row r="332" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E332" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15462,13 +15475,13 @@
     </row>
     <row r="335" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B335" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E336" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -15483,12 +15496,12 @@
     </row>
     <row r="339" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E339" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B340" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E340" s="2"/>
     </row>
@@ -15543,7 +15556,7 @@
       <c r="C350" s="13"/>
       <c r="D350" s="6"/>
       <c r="E350" s="18" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F350" s="26"/>
       <c r="G350" s="27"/>
@@ -15556,7 +15569,7 @@
     </row>
     <row r="351" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E351" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="352" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -15566,18 +15579,18 @@
     </row>
     <row r="353" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B353" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E353" s="1"/>
     </row>
     <row r="354" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E354" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="355" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B355" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E355" s="2"/>
     </row>
@@ -15588,18 +15601,18 @@
     </row>
     <row r="357" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E357" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="358" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B358" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E359" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="360" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15614,7 +15627,7 @@
     </row>
     <row r="362" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E362" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15629,17 +15642,17 @@
     </row>
     <row r="365" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E365" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="366" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E366" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="367" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E367" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="368" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15664,7 +15677,7 @@
     </row>
     <row r="372" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E372" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="373" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15674,7 +15687,7 @@
     </row>
     <row r="374" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E374" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="375" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15694,12 +15707,12 @@
     </row>
     <row r="378" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E378" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="379" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E379" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="380" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15729,7 +15742,7 @@
     </row>
     <row r="385" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E385" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="386" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15789,12 +15802,12 @@
     </row>
     <row r="397" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E397" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="398" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E398" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="399" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15804,7 +15817,7 @@
     </row>
     <row r="400" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E400" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="401" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15849,7 +15862,7 @@
     </row>
     <row r="409" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E409" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="410" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15894,7 +15907,7 @@
     </row>
     <row r="418" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E418" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="419" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15919,12 +15932,12 @@
     </row>
     <row r="423" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E423" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="424" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E424" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="425" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16009,7 +16022,7 @@
     </row>
     <row r="441" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B441" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E441" s="2"/>
     </row>
@@ -16020,7 +16033,7 @@
     </row>
     <row r="443" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E443" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="444" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -16030,7 +16043,7 @@
     </row>
     <row r="445" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B445" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E445" s="2"/>
     </row>
@@ -16040,7 +16053,7 @@
       <c r="C446" s="13"/>
       <c r="D446" s="14"/>
       <c r="E446" s="18" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F446" s="15"/>
       <c r="G446" s="16"/>
@@ -16057,7 +16070,7 @@
       <c r="C447" s="13"/>
       <c r="D447" s="14"/>
       <c r="E447" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F447" s="23"/>
       <c r="G447" s="16"/>
@@ -16074,7 +16087,7 @@
       <c r="C448" s="13"/>
       <c r="D448" s="14"/>
       <c r="E448" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F448" s="15"/>
       <c r="G448" s="16"/>
@@ -16087,23 +16100,23 @@
     </row>
     <row r="449" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E449" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="450" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B450" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E450" s="2"/>
     </row>
     <row r="451" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E451" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="452" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B452" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E452" s="1"/>
     </row>
@@ -16114,29 +16127,29 @@
     </row>
     <row r="454" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E454" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="455" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B455" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E455" s="2"/>
     </row>
     <row r="456" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E456" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="457" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B457" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E457" s="1"/>
     </row>
     <row r="458" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D458" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E458" s="1"/>
     </row>
@@ -16182,18 +16195,18 @@
     </row>
     <row r="467" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B467" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E467" s="2"/>
     </row>
     <row r="468" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E468" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="469" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B469" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E469" s="2"/>
     </row>
@@ -16224,12 +16237,12 @@
     </row>
     <row r="475" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E475" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="476" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E476" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="477" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16259,7 +16272,7 @@
     </row>
     <row r="482" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E482" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="483" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16269,7 +16282,7 @@
     </row>
     <row r="484" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B484" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E484" s="1"/>
     </row>
@@ -16280,12 +16293,12 @@
     </row>
     <row r="486" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E486" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="487" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B487" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E487" s="2"/>
     </row>
@@ -16296,7 +16309,7 @@
     </row>
     <row r="489" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E489" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="490" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16316,7 +16329,7 @@
     </row>
     <row r="493" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B493" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E493" s="1"/>
     </row>
@@ -16327,7 +16340,7 @@
     </row>
     <row r="495" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B495" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E495" s="2"/>
     </row>
@@ -16338,7 +16351,7 @@
     </row>
     <row r="497" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B497" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E497" s="2"/>
     </row>
@@ -16349,13 +16362,13 @@
     </row>
     <row r="499" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B499" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E499" s="2"/>
     </row>
     <row r="500" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E500" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="501" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -16364,7 +16377,7 @@
       <c r="C501" s="13"/>
       <c r="D501" s="14"/>
       <c r="E501" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F501" s="15"/>
       <c r="G501" s="16"/>
@@ -16381,7 +16394,7 @@
       <c r="C502" s="13"/>
       <c r="D502" s="14"/>
       <c r="E502" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F502" s="15"/>
       <c r="G502" s="16"/>
@@ -16394,32 +16407,32 @@
     </row>
     <row r="503" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E503" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="504" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E504" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="505" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E505" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="506" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E506" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="507" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E507" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="508" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B508" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E508" s="2"/>
     </row>
@@ -16450,7 +16463,7 @@
     </row>
     <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B514" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E514" s="1"/>
     </row>
@@ -16461,7 +16474,7 @@
     </row>
     <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E516" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16476,18 +16489,18 @@
     </row>
     <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B519" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E519" s="2"/>
     </row>
     <row r="520" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E520" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="521" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B521" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E521" s="2"/>
     </row>
@@ -16498,18 +16511,18 @@
     </row>
     <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B523" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E523" s="2"/>
     </row>
     <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E524" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="525" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B525" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E525" s="1"/>
     </row>
@@ -16585,29 +16598,29 @@
     </row>
     <row r="540" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B540" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E540" s="1"/>
     </row>
     <row r="541" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E541" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="542" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B542" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E542" s="2"/>
     </row>
     <row r="543" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E543" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="544" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B544" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E544" s="2"/>
     </row>
@@ -16633,7 +16646,7 @@
     </row>
     <row r="549" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E549" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="550" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16678,18 +16691,18 @@
     </row>
     <row r="558" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B558" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E558" s="2"/>
     </row>
     <row r="559" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E559" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="560" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B560" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E560" s="1"/>
     </row>
@@ -16710,7 +16723,7 @@
     </row>
     <row r="564" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B564" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E564" s="2"/>
     </row>
@@ -16721,29 +16734,29 @@
     </row>
     <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E566" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E567" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B568" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E568" s="1"/>
     </row>
     <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C569" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E569" s="1"/>
     </row>
     <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C570" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E570" s="1"/>
     </row>
@@ -16754,26 +16767,26 @@
     </row>
     <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B572" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E572" s="1"/>
     </row>
     <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C573" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E573" s="1"/>
     </row>
     <row r="574" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C574" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E574" s="1"/>
     </row>
     <row r="575" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C575" s="8"/>
       <c r="E575" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16788,7 +16801,7 @@
     </row>
     <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E578" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="579" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16798,47 +16811,47 @@
     </row>
     <row r="580" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B580" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E580" s="2"/>
     </row>
     <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C581" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E581" s="2"/>
     </row>
     <row r="582" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C582" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E582" s="2"/>
     </row>
     <row r="583" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E583" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="584" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B584" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E584" s="2"/>
     </row>
     <row r="585" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E585" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="586" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B586" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E586" s="2"/>
     </row>
     <row r="587" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E587" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="588" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -16853,18 +16866,18 @@
     </row>
     <row r="590" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B590" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E590" s="2"/>
     </row>
     <row r="591" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E591" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="592" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B592" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E592" s="2"/>
     </row>
@@ -16910,7 +16923,7 @@
     </row>
     <row r="601" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E601" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="602" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -16939,7 +16952,7 @@
       <c r="C606" s="13"/>
       <c r="D606" s="6"/>
       <c r="E606" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F606" s="23"/>
       <c r="G606" s="27"/>
@@ -16977,7 +16990,7 @@
     </row>
     <row r="612" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B612" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E612" s="2"/>
     </row>
@@ -16998,7 +17011,7 @@
     </row>
     <row r="616" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B616" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E616" s="2"/>
     </row>
@@ -17064,18 +17077,18 @@
     </row>
     <row r="629" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B629" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E629" s="2"/>
     </row>
     <row r="630" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E630" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="631" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E631" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="632" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17090,23 +17103,23 @@
     </row>
     <row r="634" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B634" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E634" s="1"/>
     </row>
     <row r="635" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E635" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="636" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E636" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="637" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B637" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E637" s="1"/>
     </row>
@@ -17122,13 +17135,13 @@
     </row>
     <row r="640" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B640" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E640" s="1"/>
     </row>
     <row r="641" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D641" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E641" s="1"/>
     </row>
@@ -17214,46 +17227,46 @@
     </row>
     <row r="658" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B658" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E658" s="2"/>
     </row>
     <row r="659" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D659" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E659" s="2"/>
     </row>
     <row r="660" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E660" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="661" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B661" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E661" s="2"/>
     </row>
     <row r="662" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C662" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E662" s="2"/>
     </row>
     <row r="663" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E663" s="24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="664" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E664" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="665" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E665" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="666" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -17262,7 +17275,7 @@
       <c r="C666" s="13"/>
       <c r="D666" s="14"/>
       <c r="E666" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F666" s="15"/>
       <c r="G666" s="16"/>
@@ -17279,7 +17292,7 @@
       <c r="C667" s="13"/>
       <c r="D667" s="14"/>
       <c r="E667" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F667" s="15"/>
       <c r="G667" s="16"/>
@@ -17296,7 +17309,7 @@
       <c r="C668" s="13"/>
       <c r="D668" s="14"/>
       <c r="E668" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F668" s="15"/>
       <c r="G668" s="16"/>
@@ -17313,7 +17326,7 @@
       <c r="C669" s="13"/>
       <c r="D669" s="14"/>
       <c r="E669" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F669" s="23"/>
       <c r="G669" s="16"/>
@@ -17326,262 +17339,262 @@
     </row>
     <row r="670" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E670" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="671" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E671" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="672" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E672" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="673" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E673" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="674" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E674" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="675" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E675" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="676" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E676" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="677" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E677" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="678" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E678" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="679" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E679" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="680" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E680" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="681" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E681" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="682" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E682" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="683" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E683" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="684" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E684" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="685" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E685" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="686" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E686" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="687" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E687" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="688" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E688" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="689" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E689" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="690" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E690" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="691" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E691" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="692" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E692" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="693" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E693" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="694" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E694" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="695" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E695" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="696" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E696" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="697" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E697" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="698" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E698" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="699" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E699" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="700" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E700" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="701" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E701" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="702" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E702" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="703" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E703" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="704" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E704" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="705" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E705" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="706" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E706" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="707" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E707" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="708" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E708" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="709" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E709" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="710" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E710" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="711" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E711" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="712" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E712" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="713" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E713" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="714" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E714" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="715" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E715" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="716" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E716" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="717" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E717" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="718" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E718" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="719" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E719" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="720" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E720" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="721" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B721" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E721" s="2"/>
     </row>
@@ -17592,30 +17605,30 @@
     </row>
     <row r="723" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B723" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E723" s="2"/>
     </row>
     <row r="724" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D724" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E724" s="2"/>
     </row>
     <row r="725" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E725" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="726" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B726" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E726" s="2"/>
     </row>
     <row r="727" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D727" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E727" s="2"/>
     </row>
@@ -17626,7 +17639,7 @@
     </row>
     <row r="729" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B729" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E729" s="2"/>
     </row>
@@ -17637,7 +17650,7 @@
     </row>
     <row r="731" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B731" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E731" s="1"/>
     </row>
@@ -17653,7 +17666,7 @@
     </row>
     <row r="734" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E734" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="735" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -17663,60 +17676,60 @@
     </row>
     <row r="736" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B736" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E736" s="2"/>
     </row>
     <row r="737" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E737" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="738" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B738" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E738" s="2"/>
     </row>
     <row r="739" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E739" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="740" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E740" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="741" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E741" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="742" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E742" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="743" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E743" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="744" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E744" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="745" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B745" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E745" s="2"/>
     </row>
     <row r="746" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E746" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="747" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -17725,7 +17738,7 @@
       <c r="C747" s="13"/>
       <c r="D747" s="6"/>
       <c r="E747" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F747" s="26"/>
       <c r="G747" s="27"/>
@@ -17743,13 +17756,13 @@
     </row>
     <row r="749" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B749" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E749" s="2"/>
     </row>
     <row r="750" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E750" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="751" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -17764,18 +17777,18 @@
     </row>
     <row r="753" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B753" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E753" s="1"/>
     </row>
     <row r="754" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E754" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="755" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B755" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E755" s="1"/>
     </row>
@@ -17825,615 +17838,620 @@
       </c>
     </row>
     <row r="765" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E765" s="1" t="s">
-        <v>425</v>
+      <c r="E765" s="11" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="766" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E766" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="767" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E767" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="768" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E768" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="769" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E769" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="770" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E770" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="771" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E771" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="772" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E772" s="1" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="772" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E772" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="773" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E773" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="774" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E774" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="775" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E775" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="776" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E776" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="777" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E777" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="778" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E778" s="2" t="s">
-        <v>721</v>
+        <v>437</v>
       </c>
     </row>
     <row r="779" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E779" s="2" t="s">
-        <v>438</v>
+        <v>720</v>
       </c>
     </row>
     <row r="780" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E780" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="781" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E781" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="782" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E782" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="783" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E783" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="784" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E784" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="785" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E785" s="2" t="s">
-        <v>444</v>
+        <v>880</v>
       </c>
     </row>
     <row r="786" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E786" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="787" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E787" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="788" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B788" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="E788" s="2"/>
+    </row>
+    <row r="789" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E789" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="787" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B787" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="E787" s="2"/>
-    </row>
-    <row r="788" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E788" s="1" t="s">
+    <row r="790" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E790" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="789" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E789" s="2" t="s">
+    <row r="791" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B791" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E791" s="2"/>
+    </row>
+    <row r="792" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E792" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="790" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B790" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="E790" s="2"/>
-    </row>
-    <row r="791" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E791" s="2" t="s">
+    <row r="793" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E793" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="792" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E792" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="793" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E793" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="794" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E794" s="1" t="s">
-        <v>450</v>
+    <row r="794" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E794" s="3" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="795" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E795" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="796" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E796" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="797" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E797" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="798" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E798" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="799" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E799" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="800" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E800" s="2" t="s">
-        <v>456</v>
+      <c r="E800" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="801" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E801" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="802" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E802" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="803" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E803" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="804" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E804" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="805" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E805" s="2" t="s">
-        <v>608</v>
+        <v>459</v>
       </c>
     </row>
     <row r="806" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E806" s="2" t="s">
-        <v>461</v>
+        <v>607</v>
       </c>
     </row>
     <row r="807" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E807" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="808" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E808" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="809" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E809" s="1" t="s">
-        <v>464</v>
+      <c r="E809" s="2" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="810" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E810" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="811" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E811" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="812" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E812" s="2" t="s">
-        <v>467</v>
+      <c r="E812" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="813" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E813" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="814" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E814" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="815" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B815" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="E815" s="2"/>
+    </row>
+    <row r="816" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C816" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="E816" s="2"/>
+    </row>
+    <row r="817" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E817" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="814" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B814" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="E814" s="2"/>
-    </row>
-    <row r="815" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="C815" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="E815" s="2"/>
-    </row>
-    <row r="816" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E816" s="1" t="s">
+    <row r="818" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E818" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="817" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E817" s="2" t="s">
+    <row r="819" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E819" s="1" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="818" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E818" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="819" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E819" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="820" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E820" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="821" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E821" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="822" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E822" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="823" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E823" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="824" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E824" s="1" t="s">
-        <v>477</v>
+      <c r="E824" s="2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="825" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E825" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="826" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E826" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="827" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E827" s="2" t="s">
-        <v>480</v>
+      <c r="E827" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="828" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E828" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="829" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E829" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="830" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E830" s="1" t="s">
-        <v>483</v>
+      <c r="E830" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="831" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E831" s="1" t="s">
-        <v>738</v>
+        <v>482</v>
       </c>
     </row>
     <row r="832" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E832" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="833" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E833" s="1" t="s">
-        <v>484</v>
+        <v>724</v>
       </c>
     </row>
     <row r="834" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E834" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="835" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E835" s="2" t="s">
-        <v>739</v>
+      <c r="E835" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="836" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E836" s="2" t="s">
-        <v>486</v>
+        <v>738</v>
       </c>
     </row>
     <row r="837" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E837" s="2" t="s">
-        <v>740</v>
+        <v>485</v>
       </c>
     </row>
     <row r="838" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E838" s="2" t="s">
-        <v>487</v>
+        <v>739</v>
       </c>
     </row>
     <row r="839" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E839" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="840" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E840" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="841" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E841" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="842" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E842" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="843" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E843" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="844" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E844" s="2" t="s">
-        <v>767</v>
+        <v>491</v>
       </c>
     </row>
     <row r="845" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E845" s="2" t="s">
-        <v>493</v>
+        <v>766</v>
       </c>
     </row>
     <row r="846" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E846" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="847" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E847" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="848" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E848" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="849" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E849" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="850" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E850" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="851" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E851" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="852" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B852" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="E852" s="2"/>
+    </row>
+    <row r="853" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E853" s="1" t="s">
         <v>498</v>
-      </c>
-    </row>
-    <row r="851" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B851" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="E851" s="2"/>
-    </row>
-    <row r="852" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E852" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="853" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E853" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="854" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E854" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E855" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B856" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="E856" s="2"/>
+    </row>
+    <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E857" s="2" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B855" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="E855" s="2"/>
-    </row>
-    <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E856" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E857" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="858" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E858" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="859" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E859" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="860" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E860" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="861" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E861" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E862" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E863" s="2" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E862" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E863" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="864" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E864" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="865" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E865" s="2" t="s">
+      <c r="E865" s="1" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="866" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E866" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="867" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E867" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="868" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E868" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="869" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E869" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="870" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E870" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="871" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E871" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="872" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E872" s="1" t="s">
-        <v>518</v>
+      <c r="E872" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="873" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E873" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="874" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E874" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="875" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E875" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="876" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B876" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="E876" s="1"/>
+      <c r="E876" s="1" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="877" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E877" s="2" t="s">
-        <v>522</v>
-      </c>
+      <c r="B877" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E877" s="1"/>
     </row>
     <row r="878" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E878" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="879" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E879" s="1" t="s">
-        <v>524</v>
+      <c r="E879" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="880" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E880" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="881" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E881" s="2" t="s">
-        <v>526</v>
+      <c r="E881" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="882" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E882" s="2" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
     </row>
     <row r="883" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E883" s="2" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="884" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E884" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="885" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E885" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="886" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E886" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/data/taxon genera files/O genera reduced.xlsx
+++ b/data/taxon genera files/O genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="892">
   <si>
     <r>
       <t>Oblatinella arcuata</t>
@@ -5569,20 +5569,6 @@
   </si>
   <si>
     <r>
-      <t>Orygmahapsis fistulosa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Colbath) Colbath 1987</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Orygmahapsis magnata</t>
     </r>
     <r>
@@ -8138,12 +8124,6 @@
   </si>
   <si>
     <t>ORDOVICIDIUM</t>
-  </si>
-  <si>
-    <t>ORTHOSPHAERIDIUM</t>
-  </si>
-  <si>
-    <t>ORYGMAHAPSIS</t>
   </si>
   <si>
     <t>ORYGMATOSPHAERIDIUM</t>
@@ -10606,9 +10586,6 @@
     </r>
   </si>
   <si>
-    <t>Psiloschizosporis</t>
-  </si>
-  <si>
     <r>
       <t>Ovoidites ligneolus</t>
     </r>
@@ -13125,6 +13102,270 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Lei 1978</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Krutzsch (1967) considered </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Osmundacidites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Couper 1953 to be a taxonomic junior synonym of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Baculatisporites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, a practice also followed by Saxena &amp; Trivedi (2009)&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Psiloschizosporis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Jain 1968; p. 31.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Schizophacus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pierce 1976; p. 30.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ORTHOSPHAERIDIUM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eisenack emend. Turner 1984; p. 125.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Eisenack 1968b; p. 91-92.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Eisenack emend. Kjellström 1971a; p. 49.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium occultatum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Burmann) Eisenack, Cramer &amp; Díez 1976</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium procerum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Burmann) Eisenack, Cramer &amp; Díez 1976</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium quadricorne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Burmann) Eisenack, Cramer &amp; Díez 1976</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ORYGMAHAPSIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Colbath 1987; p. 66.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Orygmahapsis fistulosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Colbath) Colbath 1987 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium rectangulare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Eisenack) Eisenack 1968b (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ophioglossisporites cullensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Zamaloa 2004</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Onychiumsporites jingshaensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Wang &amp; Yu 2000</t>
     </r>
   </si>
 </sst>
@@ -13683,10 +13924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M886"/>
+  <dimension ref="A1:M896"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A762" workbookViewId="0">
-      <selection activeCell="J766" sqref="J766"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="N331" sqref="N331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13700,28 +13941,28 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E4" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -13732,7 +13973,7 @@
     </row>
     <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -13757,28 +13998,28 @@
     </row>
     <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E14" s="11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E15" s="11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E16" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E17" s="11" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -13787,7 +14028,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
@@ -13804,7 +14045,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="18" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
@@ -13817,53 +14058,53 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E20" s="11" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E21" s="11" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E22" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E23" s="11" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E24" s="18" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E25" s="11" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E26" s="11" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -13879,7 +14120,7 @@
     </row>
     <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -13984,24 +14225,24 @@
     </row>
     <row r="53" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E54" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E56" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14026,13 +14267,13 @@
     </row>
     <row r="61" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E62" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14047,18 +14288,18 @@
     </row>
     <row r="65" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E66" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B67" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E67" s="2"/>
     </row>
@@ -14069,7 +14310,7 @@
     </row>
     <row r="69" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E69" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14089,7 +14330,7 @@
     </row>
     <row r="73" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -14100,12 +14341,12 @@
     </row>
     <row r="75" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E75" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B76" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E76" s="1"/>
     </row>
@@ -14116,18 +14357,18 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E79" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B80" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E80" s="1"/>
     </row>
@@ -14148,7 +14389,7 @@
     </row>
     <row r="84" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B84" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E84" s="2"/>
     </row>
@@ -14164,18 +14405,18 @@
     </row>
     <row r="87" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B87" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E88" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B89" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -14191,29 +14432,29 @@
     </row>
     <row r="92" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E93" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B94" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E95" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B96" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E96" s="2"/>
     </row>
@@ -14234,7 +14475,7 @@
     </row>
     <row r="100" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E100" s="1" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="101" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14254,7 +14495,7 @@
     </row>
     <row r="104" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E104" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="105" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14269,7 +14510,7 @@
     </row>
     <row r="107" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E107" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="108" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14318,7 +14559,7 @@
       <c r="C116" s="20"/>
       <c r="D116" s="21"/>
       <c r="E116" s="18" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F116" s="22"/>
       <c r="G116" s="22"/>
@@ -14336,7 +14577,7 @@
     </row>
     <row r="118" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E118" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -14416,7 +14657,7 @@
     </row>
     <row r="134" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E134" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14441,18 +14682,18 @@
     </row>
     <row r="139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E140" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E141" s="1"/>
     </row>
@@ -14503,12 +14744,12 @@
     </row>
     <row r="151" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E151" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="152" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E152" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="153" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14538,7 +14779,7 @@
     </row>
     <row r="158" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E158" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="159" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14568,7 +14809,7 @@
     </row>
     <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E164" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14583,12 +14824,12 @@
     </row>
     <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E167" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E168" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14613,7 +14854,7 @@
     </row>
     <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -14634,7 +14875,7 @@
     </row>
     <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E177" s="2"/>
     </row>
@@ -14645,7 +14886,7 @@
     </row>
     <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E179" s="1"/>
     </row>
@@ -14666,7 +14907,7 @@
     </row>
     <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B183" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E183" s="2"/>
     </row>
@@ -14682,7 +14923,7 @@
     </row>
     <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E186" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14692,12 +14933,12 @@
     </row>
     <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E188" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B189" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E189" s="2"/>
     </row>
@@ -14708,7 +14949,7 @@
     </row>
     <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B191" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E191" s="2"/>
     </row>
@@ -14719,33 +14960,33 @@
     </row>
     <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E193" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B194" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E195" s="25" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E196" s="18" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E197" s="11" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E198" s="11" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14760,40 +15001,40 @@
     </row>
     <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E201" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B202" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E203" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B204" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E205" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B206" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E207" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14803,18 +15044,18 @@
     </row>
     <row r="209" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B209" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E210" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B211" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E211" s="2"/>
     </row>
@@ -14835,7 +15076,7 @@
     </row>
     <row r="215" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E215" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="216" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -14844,7 +15085,7 @@
       <c r="C216" s="20"/>
       <c r="D216" s="21"/>
       <c r="E216" s="18" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F216" s="22"/>
       <c r="G216" s="22"/>
@@ -14857,12 +15098,12 @@
     </row>
     <row r="217" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E217" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B218" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E218" s="2"/>
     </row>
@@ -14873,12 +15114,12 @@
     </row>
     <row r="220" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E220" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B221" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E221" s="1"/>
     </row>
@@ -14889,13 +15130,13 @@
     </row>
     <row r="223" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B223" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E223" s="1"/>
     </row>
     <row r="224" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E224" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14915,7 +15156,7 @@
     </row>
     <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B228" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E228" s="2"/>
     </row>
@@ -14956,7 +15197,7 @@
     </row>
     <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E236" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14986,7 +15227,7 @@
     </row>
     <row r="242" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E242" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="243" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15016,12 +15257,12 @@
     </row>
     <row r="248" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E248" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="249" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E249" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="250" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15031,12 +15272,12 @@
     </row>
     <row r="251" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E251" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="252" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E252" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="253" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15066,7 +15307,7 @@
     </row>
     <row r="258" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E258" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="259" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15151,17 +15392,17 @@
     </row>
     <row r="275" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E275" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="276" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E276" s="2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="277" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E277" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="278" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15201,12 +15442,12 @@
     </row>
     <row r="285" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E285" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="286" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E286" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="287" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15251,7 +15492,7 @@
     </row>
     <row r="295" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B295" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E295" s="2"/>
     </row>
@@ -15262,18 +15503,18 @@
     </row>
     <row r="297" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B297" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E297" s="1"/>
     </row>
     <row r="298" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E298" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="299" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B299" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E299" s="2"/>
     </row>
@@ -15289,13 +15530,13 @@
     </row>
     <row r="302" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B302" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E303" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="304" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15305,7 +15546,7 @@
     </row>
     <row r="305" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B305" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E305" s="1"/>
     </row>
@@ -15321,7 +15562,7 @@
     </row>
     <row r="308" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E308" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="309" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -15331,13 +15572,13 @@
     </row>
     <row r="310" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B310" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E311" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -15347,13 +15588,13 @@
     </row>
     <row r="313" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B313" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E313" s="1"/>
     </row>
     <row r="314" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D314" s="6" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E314" s="1"/>
     </row>
@@ -15368,7 +15609,7 @@
       <c r="C316" s="20"/>
       <c r="D316" s="21"/>
       <c r="E316" s="11" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G316" s="22"/>
       <c r="H316" s="22"/>
@@ -15390,23 +15631,23 @@
     </row>
     <row r="319" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E319" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="320" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B320" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E321" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B322" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E322" s="1"/>
     </row>
@@ -15417,18 +15658,18 @@
     </row>
     <row r="324" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B324" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E324" s="4"/>
     </row>
     <row r="325" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E325" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B326" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E326" s="2"/>
     </row>
@@ -15454,625 +15695,613 @@
     </row>
     <row r="331" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B331" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E331" s="1"/>
     </row>
     <row r="332" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E332" s="2" t="s">
-        <v>656</v>
+      <c r="E332" s="11" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="333" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E333" s="2" t="s">
-        <v>200</v>
+        <v>653</v>
       </c>
     </row>
     <row r="334" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E334" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E335" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="335" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B335" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="E335" s="2"/>
-    </row>
-    <row r="336" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E336" s="2" t="s">
-        <v>544</v>
-      </c>
+    <row r="336" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B336" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E337" s="1" t="s">
+      <c r="E337" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E338" s="1" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E338" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="339" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E339" s="2" t="s">
-        <v>592</v>
+        <v>203</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B340" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="E340" s="2"/>
+      <c r="E340" s="2" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="341" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E341" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="B341" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E342" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E343" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="344" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E344" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E345" s="1" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E345" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="346" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E346" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="347" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E347" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="348" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E348" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="349" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E349" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E350" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="350" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A350"/>
-      <c r="B350" s="12"/>
-      <c r="C350" s="13"/>
-      <c r="D350" s="6"/>
-      <c r="E350" s="18" t="s">
-        <v>879</v>
-      </c>
-      <c r="F350" s="26"/>
-      <c r="G350" s="27"/>
-      <c r="H350" s="28"/>
-      <c r="I350" s="29"/>
-      <c r="J350" s="29"/>
-      <c r="K350" s="29"/>
-      <c r="L350" s="29"/>
-      <c r="M350" s="29"/>
-    </row>
-    <row r="351" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E351" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E352" s="1" t="s">
+    <row r="351" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A351"/>
+      <c r="B351" s="12"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="F351" s="26"/>
+      <c r="G351" s="27"/>
+      <c r="H351" s="28"/>
+      <c r="I351" s="29"/>
+      <c r="J351" s="29"/>
+      <c r="K351" s="29"/>
+      <c r="L351" s="29"/>
+      <c r="M351" s="29"/>
+    </row>
+    <row r="352" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E352" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E353" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="353" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B353" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="E353" s="1"/>
-    </row>
     <row r="354" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E354" s="2" t="s">
+      <c r="B354" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E354" s="1"/>
+    </row>
+    <row r="355" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E355" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B356" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E356" s="2"/>
+    </row>
+    <row r="357" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E357" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E358" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B359" s="5" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="355" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B355" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="E355" s="2"/>
-    </row>
-    <row r="356" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E356" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="357" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E357" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="358" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B358" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="E358" s="2"/>
-    </row>
-    <row r="359" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E359" s="2" t="s">
-        <v>749</v>
-      </c>
+      <c r="E359" s="2"/>
     </row>
     <row r="360" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E360" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E361" s="2" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="361" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E361" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="362" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E362" s="1" t="s">
-        <v>658</v>
+        <v>216</v>
       </c>
     </row>
     <row r="363" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E363" s="2" t="s">
+      <c r="E363" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E364" s="2" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="364" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E364" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="365" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E365" s="1" t="s">
-        <v>759</v>
+        <v>218</v>
       </c>
     </row>
     <row r="366" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E366" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="367" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E367" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="368" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E368" s="1" t="s">
-        <v>219</v>
+        <v>757</v>
       </c>
     </row>
     <row r="369" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E369" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="370" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E370" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="371" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E371" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="371" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E371" s="2" t="s">
+    <row r="372" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E372" s="2" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="372" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E372" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="373" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E373" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="374" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E374" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="374" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E374" s="10" t="s">
-        <v>865</v>
-      </c>
-    </row>
     <row r="375" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E375" s="1" t="s">
-        <v>224</v>
+      <c r="E375" s="10" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="376" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E376" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="377" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E377" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="378" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E378" s="1" t="s">
-        <v>866</v>
+        <v>226</v>
       </c>
     </row>
     <row r="379" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E379" s="1" t="s">
-        <v>762</v>
+        <v>862</v>
       </c>
     </row>
     <row r="380" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E380" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="381" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E381" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="381" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E381" s="2" t="s">
+    <row r="382" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E382" s="2" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="382" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E382" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="383" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E383" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="384" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E384" s="1" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="384" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E384" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="385" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E385" s="2" t="s">
-        <v>763</v>
+        <v>231</v>
       </c>
     </row>
     <row r="386" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E386" s="2" t="s">
-        <v>232</v>
+        <v>759</v>
       </c>
     </row>
     <row r="387" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E387" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="388" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E388" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="389" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E389" s="2" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="389" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E389" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="390" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E390" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="391" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E391" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="392" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E392" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="393" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E393" s="1" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="393" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E393" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="394" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E394" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="395" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E395" s="2" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="395" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E395" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="396" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E396" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="397" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E397" s="1" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="397" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E397" s="3" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="398" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E398" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="399" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E399" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="399" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E399" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="400" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E400" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="400" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E400" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="401" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E401" s="1" t="s">
+    <row r="401" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E401" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="402" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E402" s="1" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="402" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E402" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="403" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E403" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="404" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E404" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="405" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E405" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="406" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E406" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="407" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E407" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="408" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E408" s="2" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="408" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E408" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="409" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E409" s="1" t="s">
-        <v>757</v>
+        <v>251</v>
       </c>
     </row>
     <row r="410" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E410" s="2" t="s">
-        <v>252</v>
+      <c r="E410" s="1" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="411" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E411" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="412" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E412" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="413" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E413" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="414" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E414" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="415" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E415" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="416" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E416" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="417" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E417" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="418" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E418" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="418" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E418" s="10" t="s">
-        <v>740</v>
-      </c>
-    </row>
     <row r="419" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E419" s="2" t="s">
-        <v>260</v>
+      <c r="E419" s="10" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="420" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E420" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="421" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E421" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="421" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E421" s="1" t="s">
+    <row r="422" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E422" s="1" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="422" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E422" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="423" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E423" s="2" t="s">
-        <v>659</v>
+        <v>263</v>
       </c>
     </row>
     <row r="424" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E424" s="2" t="s">
-        <v>758</v>
+        <v>656</v>
       </c>
     </row>
     <row r="425" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E425" s="2" t="s">
-        <v>264</v>
+        <v>754</v>
       </c>
     </row>
     <row r="426" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E426" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="427" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E427" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="428" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E428" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="429" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E429" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="430" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E430" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="431" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E431" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="431" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E431" s="1" t="s">
+    <row r="432" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E432" s="1" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="432" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E432" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="433" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E433" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E434" s="2" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E434" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="435" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E435" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E436" s="1" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="436" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E436" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="437" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E437" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="438" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E438" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="439" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E439" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="440" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E440" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E441" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B441" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="E441" s="2"/>
-    </row>
     <row r="442" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E442" s="1" t="s">
+      <c r="B442" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E442" s="2"/>
+    </row>
+    <row r="443" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E443" s="1" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="443" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E443" s="2" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="444" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E444" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E445" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="445" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B445" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="E445" s="2"/>
-    </row>
-    <row r="446" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A446"/>
-      <c r="B446" s="12"/>
-      <c r="C446" s="13"/>
-      <c r="D446" s="14"/>
-      <c r="E446" s="18" t="s">
-        <v>791</v>
-      </c>
-      <c r="F446" s="15"/>
-      <c r="G446" s="16"/>
-      <c r="H446" s="17"/>
-      <c r="I446"/>
-      <c r="J446"/>
-      <c r="K446"/>
-      <c r="L446"/>
-      <c r="M446"/>
+    <row r="446" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B446" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E446" s="2"/>
     </row>
     <row r="447" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A447"/>
       <c r="B447" s="12"/>
       <c r="C447" s="13"/>
       <c r="D447" s="14"/>
-      <c r="E447" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="F447" s="23"/>
+      <c r="E447" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="F447" s="15"/>
       <c r="G447" s="16"/>
       <c r="H447" s="17"/>
       <c r="I447"/>
@@ -16087,9 +16316,9 @@
       <c r="C448" s="13"/>
       <c r="D448" s="14"/>
       <c r="E448" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="F448" s="15"/>
+        <v>788</v>
+      </c>
+      <c r="F448" s="23"/>
       <c r="G448" s="16"/>
       <c r="H448" s="17"/>
       <c r="I448"/>
@@ -16098,2360 +16327,2438 @@
       <c r="L448"/>
       <c r="M448"/>
     </row>
-    <row r="449" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E449" s="18" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="450" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B450" s="5" t="s">
+    <row r="449" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A449"/>
+      <c r="B449" s="12"/>
+      <c r="C449" s="13"/>
+      <c r="D449" s="14"/>
+      <c r="E449" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="F449" s="15"/>
+      <c r="G449" s="16"/>
+      <c r="H449" s="17"/>
+      <c r="I449"/>
+      <c r="J449"/>
+      <c r="K449"/>
+      <c r="L449"/>
+      <c r="M449"/>
+    </row>
+    <row r="450" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E450" s="18" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B451" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E451" s="2"/>
+    </row>
+    <row r="452" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E452" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B453" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E453" s="1"/>
+    </row>
+    <row r="454" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E454" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E455" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E456" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="E450" s="2"/>
-    </row>
-    <row r="451" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E451" s="1" t="s">
+    </row>
+    <row r="457" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B457" s="5" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="452" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B452" s="5" t="s">
+      <c r="E457" s="2"/>
+    </row>
+    <row r="458" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E458" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="E452" s="1"/>
-    </row>
-    <row r="453" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E453" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="454" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E454" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="455" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B455" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="E455" s="2"/>
-    </row>
-    <row r="456" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E456" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="457" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B457" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="E457" s="1"/>
-    </row>
-    <row r="458" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D458" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="E458" s="1"/>
-    </row>
-    <row r="459" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E459" s="1" t="s">
+    </row>
+    <row r="459" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B459" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E459" s="1"/>
+    </row>
+    <row r="460" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D460" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E460" s="1"/>
+    </row>
+    <row r="461" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E461" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="460" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E460" s="1" t="s">
+    <row r="462" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E462" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="461" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E461" s="1" t="s">
+    <row r="463" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E463" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="462" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E462" s="2" t="s">
+    <row r="464" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E464" s="2" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="463" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E463" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="464" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E464" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="465" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E465" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="466" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E466" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="467" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B467" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="E467" s="2"/>
+      <c r="E467" s="2" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="468" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E468" s="2" t="s">
-        <v>567</v>
+        <v>290</v>
       </c>
     </row>
     <row r="469" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B469" s="5" t="s">
-        <v>566</v>
+        <v>666</v>
       </c>
       <c r="E469" s="2"/>
     </row>
     <row r="470" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E470" s="1" t="s">
+      <c r="E470" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="471" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B471" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E471" s="2"/>
+    </row>
+    <row r="472" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E472" s="1" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="471" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E471" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="472" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E472" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="473" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E473" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="474" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E474" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="475" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E475" s="2" t="s">
-        <v>703</v>
+      <c r="E475" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="476" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E476" s="2" t="s">
-        <v>704</v>
+        <v>295</v>
       </c>
     </row>
     <row r="477" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E477" s="1" t="s">
-        <v>296</v>
+      <c r="E477" s="2" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="478" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E478" s="2" t="s">
-        <v>297</v>
+        <v>701</v>
       </c>
     </row>
     <row r="479" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E479" s="2" t="s">
-        <v>298</v>
+      <c r="E479" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="480" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E480" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="481" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E481" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="482" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E482" s="2" t="s">
-        <v>565</v>
+        <v>299</v>
       </c>
     </row>
     <row r="483" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E483" s="1" t="s">
-        <v>301</v>
+      <c r="E483" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="484" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B484" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="E484" s="1"/>
+      <c r="E484" s="2" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="485" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E485" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="486" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B486" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="E486" s="1"/>
+    </row>
+    <row r="487" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E487" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="486" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E486" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="487" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B487" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="E487" s="2"/>
-    </row>
     <row r="488" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E488" s="1" t="s">
-        <v>303</v>
+      <c r="E488" s="2" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="489" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E489" s="1" t="s">
-        <v>673</v>
-      </c>
+      <c r="B489" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E489" s="2"/>
     </row>
     <row r="490" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E490" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="491" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E491" s="2" t="s">
-        <v>305</v>
+      <c r="E491" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="492" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E492" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="493" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E493" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="494" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E494" s="1" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="493" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B493" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="E493" s="1"/>
-    </row>
-    <row r="494" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E494" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="495" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B495" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="E495" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="E495" s="1"/>
     </row>
     <row r="496" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E496" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="497" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B497" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E497" s="2"/>
     </row>
     <row r="498" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E498" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="499" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B499" s="5" t="s">
-        <v>674</v>
+        <v>548</v>
       </c>
       <c r="E499" s="2"/>
     </row>
     <row r="500" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E500" s="11" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="501" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A501"/>
-      <c r="B501" s="12"/>
-      <c r="C501" s="13"/>
-      <c r="D501" s="14"/>
-      <c r="E501" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="F501" s="15"/>
-      <c r="G501" s="16"/>
-      <c r="H501" s="17"/>
-      <c r="I501"/>
-      <c r="J501"/>
-      <c r="K501"/>
-      <c r="L501"/>
-      <c r="M501"/>
-    </row>
-    <row r="502" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A502"/>
-      <c r="B502" s="12"/>
-      <c r="C502" s="13"/>
-      <c r="D502" s="14"/>
+      <c r="E500" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B501" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="E501" s="2"/>
+    </row>
+    <row r="502" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E502" s="11" t="s">
-        <v>797</v>
-      </c>
-      <c r="F502" s="15"/>
-      <c r="G502" s="16"/>
-      <c r="H502" s="17"/>
-      <c r="I502"/>
-      <c r="J502"/>
-      <c r="K502"/>
-      <c r="L502"/>
-      <c r="M502"/>
-    </row>
-    <row r="503" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A503"/>
+      <c r="B503" s="12"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="14"/>
       <c r="E503" s="11" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="504" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+      <c r="F503" s="15"/>
+      <c r="G503" s="16"/>
+      <c r="H503" s="17"/>
+      <c r="I503"/>
+      <c r="J503"/>
+      <c r="K503"/>
+      <c r="L503"/>
+      <c r="M503"/>
+    </row>
+    <row r="504" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A504"/>
+      <c r="B504" s="12"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="14"/>
       <c r="E504" s="11" t="s">
-        <v>799</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="F504" s="15"/>
+      <c r="G504" s="16"/>
+      <c r="H504" s="17"/>
+      <c r="I504"/>
+      <c r="J504"/>
+      <c r="K504"/>
+      <c r="L504"/>
+      <c r="M504"/>
     </row>
     <row r="505" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E505" s="11" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="506" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E506" s="18" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="507" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E507" s="18" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="508" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B508" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="E508" s="2"/>
-    </row>
-    <row r="509" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E509" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E506" s="11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E507" s="11" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E508" s="18" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E509" s="18" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B510" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E510" s="2"/>
+    </row>
+    <row r="511" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E511" s="1" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="510" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E510" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="511" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E511" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="512" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E512" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="513" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E513" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E514" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="513" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E513" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B514" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="E514" s="1"/>
     </row>
     <row r="515" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E515" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B516" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E516" s="1"/>
+    </row>
+    <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E517" s="1" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E516" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E517" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="518" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E518" s="2" t="s">
-        <v>317</v>
+        <v>673</v>
       </c>
     </row>
     <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B519" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="E519" s="2"/>
+      <c r="E519" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="520" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E520" s="2" t="s">
-        <v>678</v>
+        <v>317</v>
       </c>
     </row>
     <row r="521" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B521" s="5" t="s">
-        <v>551</v>
+        <v>674</v>
       </c>
       <c r="E521" s="2"/>
     </row>
     <row r="522" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E522" s="2" t="s">
-        <v>318</v>
+        <v>675</v>
       </c>
     </row>
     <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B523" s="5" t="s">
-        <v>679</v>
+        <v>550</v>
       </c>
       <c r="E523" s="2"/>
     </row>
     <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E524" s="1" t="s">
-        <v>680</v>
+      <c r="E524" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="525" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B525" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="E525" s="1"/>
+        <v>676</v>
+      </c>
+      <c r="E525" s="2"/>
     </row>
     <row r="526" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E526" s="4" t="s">
+      <c r="E526" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B527" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="E527" s="1"/>
+    </row>
+    <row r="528" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E528" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="527" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E527" s="1" t="s">
+    <row r="529" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E529" s="1" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="528" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E528" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="529" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E529" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="530" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E530" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="531" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E531" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="532" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E532" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="533" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E533" s="1" t="s">
-        <v>326</v>
+      <c r="E533" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="534" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E534" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="535" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E535" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="536" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E536" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="537" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E537" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E538" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="537" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E537" s="2" t="s">
+    <row r="539" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E539" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="538" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E538" s="2" t="s">
+    <row r="540" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E540" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="539" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E539" s="1" t="s">
+    <row r="541" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E541" s="1" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="540" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B540" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="E540" s="1"/>
-    </row>
-    <row r="541" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E541" s="2" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="542" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B542" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="E542" s="2"/>
+        <v>678</v>
+      </c>
+      <c r="E542" s="1"/>
     </row>
     <row r="543" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E543" s="2" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
     </row>
     <row r="544" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B544" s="5" t="s">
-        <v>683</v>
+        <v>596</v>
       </c>
       <c r="E544" s="2"/>
     </row>
     <row r="545" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E545" s="1" t="s">
-        <v>333</v>
+      <c r="E545" s="2" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="546" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E546" s="1" t="s">
-        <v>334</v>
-      </c>
+      <c r="B546" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="E546" s="2"/>
     </row>
     <row r="547" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E547" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="548" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E548" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="549" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E549" s="2" t="s">
-        <v>684</v>
+      <c r="E549" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="550" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E550" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="551" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E551" s="1" t="s">
-        <v>338</v>
+      <c r="E551" s="2" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="552" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E552" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="553" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E553" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="554" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E554" s="1" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="553" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E553" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="554" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E554" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="555" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E555" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="556" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E556" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="557" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E557" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="558" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E558" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="559" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E559" s="2" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="558" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B558" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="E558" s="2"/>
-    </row>
-    <row r="559" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E559" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="560" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B560" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="E560" s="1"/>
+        <v>682</v>
+      </c>
+      <c r="E560" s="2"/>
     </row>
     <row r="561" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E561" s="2" t="s">
-        <v>345</v>
+      <c r="E561" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="562" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E562" s="2" t="s">
-        <v>346</v>
-      </c>
+      <c r="B562" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E562" s="1"/>
     </row>
     <row r="563" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E563" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="564" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B564" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="E564" s="2"/>
+      <c r="E564" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="565" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E565" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B566" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="E566" s="2"/>
+    </row>
+    <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E567" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E566" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E567" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
     <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B568" s="5" t="s">
+      <c r="E568" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E569" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B570" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="E570" s="1"/>
+    </row>
+    <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C571" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="E568" s="1"/>
-    </row>
-    <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C569" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="E569" s="1"/>
-    </row>
-    <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C570" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="E570" s="1"/>
-    </row>
-    <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E571" s="2" t="s">
+      <c r="E571" s="1"/>
+    </row>
+    <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C572" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="E572" s="1"/>
+    </row>
+    <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E573" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B572" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="E572" s="1"/>
-    </row>
-    <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C573" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="E573" s="1"/>
-    </row>
-    <row r="574" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C574" s="7" t="s">
-        <v>872</v>
+    <row r="574" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B574" s="5" t="s">
+        <v>687</v>
       </c>
       <c r="E574" s="1"/>
     </row>
     <row r="575" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C575" s="8"/>
-      <c r="E575" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E576" s="1" t="s">
+      <c r="C575" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="E575" s="1"/>
+    </row>
+    <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C576" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="E576" s="1"/>
+    </row>
+    <row r="577" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C577" s="8"/>
+      <c r="E577" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E578" s="1" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="577" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E577" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E578" s="2" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="579" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E579" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="580" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E580" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E581" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="580" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B580" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="E580" s="2"/>
-    </row>
-    <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C581" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="E581" s="2"/>
-    </row>
     <row r="582" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C582" s="8" t="s">
-        <v>875</v>
+      <c r="B582" s="5" t="s">
+        <v>870</v>
       </c>
       <c r="E582" s="2"/>
     </row>
-    <row r="583" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E583" s="2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="584" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B584" s="5" t="s">
-        <v>693</v>
+    <row r="583" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C583" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E583" s="2"/>
+    </row>
+    <row r="584" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C584" s="8" t="s">
+        <v>871</v>
       </c>
       <c r="E584" s="2"/>
     </row>
     <row r="585" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E585" s="2" t="s">
-        <v>694</v>
+        <v>869</v>
       </c>
     </row>
     <row r="586" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B586" s="5" t="s">
-        <v>601</v>
+        <v>690</v>
       </c>
       <c r="E586" s="2"/>
     </row>
     <row r="587" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E587" s="2" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
     </row>
     <row r="588" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E588" s="2" t="s">
-        <v>353</v>
-      </c>
+      <c r="B588" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E588" s="2"/>
     </row>
     <row r="589" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E589" s="2" t="s">
-        <v>354</v>
+        <v>599</v>
       </c>
     </row>
     <row r="590" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B590" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="E590" s="2"/>
+      <c r="E590" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="591" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E591" s="2" t="s">
-        <v>603</v>
+        <v>354</v>
       </c>
     </row>
     <row r="592" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B592" s="5" t="s">
-        <v>553</v>
+        <v>692</v>
       </c>
       <c r="E592" s="2"/>
     </row>
-    <row r="593" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E593" s="4" t="s">
+    <row r="593" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E593" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="594" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B594" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E594" s="2"/>
+    </row>
+    <row r="595" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C595" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="E595" s="2"/>
+    </row>
+    <row r="596" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C596" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="E596" s="2"/>
+    </row>
+    <row r="597" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E597" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="594" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E594" s="1" t="s">
+    <row r="598" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E598" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="595" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E595" s="2" t="s">
+    <row r="599" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E599" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="596" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E596" s="1" t="s">
+    <row r="600" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E600" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="597" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E597" s="1" t="s">
+    <row r="601" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E601" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="598" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E598" s="1" t="s">
+    <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E602" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="599" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E599" s="1" t="s">
+    <row r="603" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E603" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="600" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E600" s="1" t="s">
+    <row r="604" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E604" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="601" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E601" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="602" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E602" s="1" t="s">
+    <row r="605" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E605" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="606" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E606" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="603" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E603" s="1" t="s">
+    <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E607" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="604" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E604" s="1" t="s">
+    <row r="608" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E608" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="605" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E605" s="2" t="s">
+    <row r="609" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E609" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E610" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="606" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A606"/>
-      <c r="B606" s="12"/>
-      <c r="C606" s="13"/>
-      <c r="D606" s="6"/>
-      <c r="E606" s="18" t="s">
-        <v>878</v>
-      </c>
-      <c r="F606" s="23"/>
-      <c r="G606" s="27"/>
-      <c r="H606" s="28"/>
-      <c r="I606" s="29"/>
-      <c r="J606" s="29"/>
-      <c r="K606" s="29"/>
-      <c r="L606" s="29"/>
-      <c r="M606" s="29"/>
-    </row>
-    <row r="607" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E607" s="2" t="s">
+    <row r="611" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E611" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E612" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A613"/>
+      <c r="B613" s="12"/>
+      <c r="C613" s="13"/>
+      <c r="D613" s="6"/>
+      <c r="E613" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="F613" s="23"/>
+      <c r="G613" s="27"/>
+      <c r="H613" s="28"/>
+      <c r="I613" s="29"/>
+      <c r="J613" s="29"/>
+      <c r="K613" s="29"/>
+      <c r="L613" s="29"/>
+      <c r="M613" s="29"/>
+    </row>
+    <row r="614" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A614"/>
+      <c r="B614" s="12"/>
+      <c r="C614" s="13"/>
+      <c r="D614" s="6"/>
+      <c r="E614" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="F614" s="23"/>
+      <c r="G614" s="27"/>
+      <c r="H614" s="28"/>
+      <c r="I614" s="29"/>
+      <c r="J614" s="29"/>
+      <c r="K614" s="29"/>
+      <c r="L614" s="29"/>
+      <c r="M614" s="29"/>
+    </row>
+    <row r="615" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E615" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="608" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E608" s="2" t="s">
+    <row r="616" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E616" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="609" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E609" s="2" t="s">
+    <row r="617" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E617" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="610" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E610" s="2" t="s">
+    <row r="618" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E618" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="611" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E611" s="2" t="s">
+    <row r="619" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E619" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="612" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B612" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="E612" s="2"/>
-    </row>
-    <row r="613" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E613" s="1" t="s">
+    <row r="620" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B620" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="E620" s="2"/>
+    </row>
+    <row r="621" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E621" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E622" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="614" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E614" s="2" t="s">
+    <row r="623" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E623" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="615" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E615" s="2" t="s">
+    <row r="624" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B624" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E624" s="2"/>
+    </row>
+    <row r="625" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E625" s="1" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="616" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B616" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="E616" s="2"/>
-    </row>
-    <row r="617" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E617" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="618" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E618" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="619" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E619" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="620" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E620" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="621" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E621" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="622" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E622" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="623" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E623" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="624" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E624" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="625" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E625" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="626" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E626" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="627" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E627" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="628" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E628" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="629" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E629" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="630" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E630" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="631" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E631" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="632" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E632" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="633" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E633" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="634" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E634" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="635" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E635" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="627" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E627" s="2" t="s">
+    <row r="636" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E636" s="2" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="628" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E628" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="629" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B629" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="E629" s="2"/>
-    </row>
-    <row r="630" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E630" s="4" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="631" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E631" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="632" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E632" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="633" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E633" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="634" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B634" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="E634" s="1"/>
-    </row>
-    <row r="635" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E635" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="636" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E636" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="637" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B637" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E637" s="1"/>
+        <v>693</v>
+      </c>
+      <c r="E637" s="2"/>
     </row>
     <row r="638" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E638" s="1" t="s">
+      <c r="E638" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="639" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E639" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="640" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E640" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="641" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E641" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="642" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B642" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="E642" s="1"/>
+    </row>
+    <row r="643" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E643" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="644" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E644" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="645" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B645" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E645" s="1"/>
+    </row>
+    <row r="646" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E646" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="647" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E647" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="639" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E639" s="1" t="s">
+    <row r="648" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B648" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E648" s="1"/>
+    </row>
+    <row r="649" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D649" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E649" s="1"/>
+    </row>
+    <row r="650" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E650" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="640" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B640" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="E640" s="1"/>
-    </row>
-    <row r="641" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D641" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="E641" s="1"/>
-    </row>
-    <row r="642" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E642" s="1" t="s">
+    <row r="651" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E651" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="643" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E643" s="2" t="s">
+    <row r="652" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E652" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="644" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E644" s="1" t="s">
+    <row r="653" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E653" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="645" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E645" s="1" t="s">
+    <row r="654" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E654" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="646" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E646" s="2" t="s">
+    <row r="655" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E655" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="647" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E647" s="1" t="s">
+    <row r="656" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E656" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="648" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E648" s="2" t="s">
+    <row r="657" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E657" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="649" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E649" s="1" t="s">
+    <row r="658" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E658" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="650" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E650" s="1" t="s">
+    <row r="659" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E659" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="651" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E651" s="1" t="s">
+    <row r="660" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E660" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="652" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E652" s="1" t="s">
+    <row r="661" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E661" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="653" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E653" s="1" t="s">
+    <row r="662" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E662" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="654" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E654" s="2" t="s">
+    <row r="663" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E663" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="655" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E655" s="2" t="s">
+    <row r="664" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E664" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="656" spans="4:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E656" s="2" t="s">
+    <row r="665" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E665" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="657" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E657" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="658" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B658" s="5" t="s">
+    <row r="666" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B666" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E666" s="2"/>
+    </row>
+    <row r="667" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D667" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="E667" s="2"/>
+    </row>
+    <row r="668" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E668" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="669" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B669" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E669" s="2"/>
+    </row>
+    <row r="670" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C670" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="E658" s="2"/>
-    </row>
-    <row r="659" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D659" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="E659" s="2"/>
-    </row>
-    <row r="660" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E660" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="661" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B661" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="E661" s="2"/>
-    </row>
-    <row r="662" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C662" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="E662" s="2"/>
-    </row>
-    <row r="663" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E663" s="24" t="s">
+      <c r="E670" s="2"/>
+    </row>
+    <row r="671" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D671" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="E671" s="2"/>
+    </row>
+    <row r="672" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E672" s="24" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E673" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E674" s="11" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A675"/>
+      <c r="B675" s="12"/>
+      <c r="C675" s="13"/>
+      <c r="D675" s="14"/>
+      <c r="E675" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F675" s="15"/>
+      <c r="G675" s="16"/>
+      <c r="H675" s="17"/>
+      <c r="I675"/>
+      <c r="J675"/>
+      <c r="K675"/>
+      <c r="L675"/>
+      <c r="M675"/>
+    </row>
+    <row r="676" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A676"/>
+      <c r="B676" s="12"/>
+      <c r="C676" s="13"/>
+      <c r="D676" s="14"/>
+      <c r="E676" s="11" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="664" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E664" s="11" t="s">
+      <c r="F676" s="15"/>
+      <c r="G676" s="16"/>
+      <c r="H676" s="17"/>
+      <c r="I676"/>
+      <c r="J676"/>
+      <c r="K676"/>
+      <c r="L676"/>
+      <c r="M676"/>
+    </row>
+    <row r="677" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A677"/>
+      <c r="B677" s="12"/>
+      <c r="C677" s="13"/>
+      <c r="D677" s="14"/>
+      <c r="E677" s="11" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="665" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E665" s="11" t="s">
+      <c r="F677" s="15"/>
+      <c r="G677" s="16"/>
+      <c r="H677" s="17"/>
+      <c r="I677"/>
+      <c r="J677"/>
+      <c r="K677"/>
+      <c r="L677"/>
+      <c r="M677"/>
+    </row>
+    <row r="678" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A678"/>
+      <c r="B678" s="12"/>
+      <c r="C678" s="13"/>
+      <c r="D678" s="14"/>
+      <c r="E678" s="11" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="666" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A666"/>
-      <c r="B666" s="12"/>
-      <c r="C666" s="13"/>
-      <c r="D666" s="14"/>
-      <c r="E666" s="11" t="s">
+      <c r="F678" s="23"/>
+      <c r="G678" s="16"/>
+      <c r="H678" s="17"/>
+      <c r="I678"/>
+      <c r="J678"/>
+      <c r="K678"/>
+      <c r="L678"/>
+      <c r="M678"/>
+    </row>
+    <row r="679" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E679" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="F666" s="15"/>
-      <c r="G666" s="16"/>
-      <c r="H666" s="17"/>
-      <c r="I666"/>
-      <c r="J666"/>
-      <c r="K666"/>
-      <c r="L666"/>
-      <c r="M666"/>
-    </row>
-    <row r="667" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A667"/>
-      <c r="B667" s="12"/>
-      <c r="C667" s="13"/>
-      <c r="D667" s="14"/>
-      <c r="E667" s="11" t="s">
+    </row>
+    <row r="680" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E680" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="F667" s="15"/>
-      <c r="G667" s="16"/>
-      <c r="H667" s="17"/>
-      <c r="I667"/>
-      <c r="J667"/>
-      <c r="K667"/>
-      <c r="L667"/>
-      <c r="M667"/>
-    </row>
-    <row r="668" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A668"/>
-      <c r="B668" s="12"/>
-      <c r="C668" s="13"/>
-      <c r="D668" s="14"/>
-      <c r="E668" s="11" t="s">
+    </row>
+    <row r="681" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E681" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="F668" s="15"/>
-      <c r="G668" s="16"/>
-      <c r="H668" s="17"/>
-      <c r="I668"/>
-      <c r="J668"/>
-      <c r="K668"/>
-      <c r="L668"/>
-      <c r="M668"/>
-    </row>
-    <row r="669" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A669"/>
-      <c r="B669" s="12"/>
-      <c r="C669" s="13"/>
-      <c r="D669" s="14"/>
-      <c r="E669" s="11" t="s">
+    </row>
+    <row r="682" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E682" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="F669" s="23"/>
-      <c r="G669" s="16"/>
-      <c r="H669" s="17"/>
-      <c r="I669"/>
-      <c r="J669"/>
-      <c r="K669"/>
-      <c r="L669"/>
-      <c r="M669"/>
-    </row>
-    <row r="670" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E670" s="11" t="s">
+    </row>
+    <row r="683" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E683" s="11" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="671" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E671" s="11" t="s">
+    <row r="684" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E684" s="11" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="672" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E672" s="11" t="s">
+    <row r="685" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E685" s="11" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="673" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E673" s="11" t="s">
+    <row r="686" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E686" s="11" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="674" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E674" s="11" t="s">
+    <row r="687" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E687" s="11" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="675" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E675" s="11" t="s">
+    <row r="688" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E688" s="11" t="s">
         <v>815</v>
-      </c>
-    </row>
-    <row r="676" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E676" s="11" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="677" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E677" s="11" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="678" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E678" s="11" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="679" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E679" s="11" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="680" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E680" s="11" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="681" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E681" s="11" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="682" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E682" s="11" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="683" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E683" s="11" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="684" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E684" s="11" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="685" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E685" s="11" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="686" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E686" s="11" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="687" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E687" s="11" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="688" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E688" s="11" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="689" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E689" s="11" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
     </row>
     <row r="690" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E690" s="11" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
     </row>
     <row r="691" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E691" s="11" t="s">
-        <v>864</v>
+        <v>818</v>
       </c>
     </row>
     <row r="692" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E692" s="11" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
     </row>
     <row r="693" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E693" s="11" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
     </row>
     <row r="694" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E694" s="11" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
     </row>
     <row r="695" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E695" s="11" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
     </row>
     <row r="696" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E696" s="11" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
     </row>
     <row r="697" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E697" s="11" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
     </row>
     <row r="698" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E698" s="11" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
     </row>
     <row r="699" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E699" s="11" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="700" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E700" s="18" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="701" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E701" s="18" t="s">
-        <v>840</v>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="700" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E700" s="11" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="701" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E701" s="11" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="702" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E702" s="11" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
     </row>
     <row r="703" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E703" s="11" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
     </row>
     <row r="704" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E704" s="11" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
     </row>
     <row r="705" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E705" s="11" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
     </row>
     <row r="706" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E706" s="11" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="707" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E707" s="11" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
     </row>
     <row r="708" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E708" s="11" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="709" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E709" s="11" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="710" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E710" s="11" t="s">
-        <v>849</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="709" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E709" s="18" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="710" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E710" s="18" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="711" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E711" s="11" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
     </row>
     <row r="712" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E712" s="11" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
     </row>
     <row r="713" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E713" s="11" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
     </row>
     <row r="714" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E714" s="11" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="715" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E715" s="18" t="s">
-        <v>854</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="715" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E715" s="11" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="716" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E716" s="11" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
     </row>
     <row r="717" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E717" s="11" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="718" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E718" s="11" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
     </row>
     <row r="719" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E719" s="11" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
     </row>
     <row r="720" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E720" s="11" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="721" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B721" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="721" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E721" s="11" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="722" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E722" s="11" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="723" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E723" s="11" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="724" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E724" s="18" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="725" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E725" s="11" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="726" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E726" s="11" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="727" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E727" s="11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="728" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E728" s="11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="729" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E729" s="11" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="730" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B730" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="E730" s="2"/>
+    </row>
+    <row r="731" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E731" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="732" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B732" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="E732" s="2"/>
+    </row>
+    <row r="733" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D733" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="E721" s="2"/>
-    </row>
-    <row r="722" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E722" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="723" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B723" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="E723" s="2"/>
-    </row>
-    <row r="724" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D724" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="E724" s="2"/>
-    </row>
-    <row r="725" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E725" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="726" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B726" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="E726" s="2"/>
-    </row>
-    <row r="727" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D727" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="E727" s="2"/>
-    </row>
-    <row r="728" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E728" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="729" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B729" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="E729" s="2"/>
-    </row>
-    <row r="730" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E730" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="731" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B731" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="E731" s="1"/>
-    </row>
-    <row r="732" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E732" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="733" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E733" s="2" t="s">
-        <v>411</v>
-      </c>
+      <c r="E733" s="2"/>
     </row>
     <row r="734" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E734" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="735" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B735" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E735" s="2"/>
+    </row>
+    <row r="736" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D736" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E736" s="2"/>
+    </row>
+    <row r="737" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E737" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="738" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B738" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="E738" s="2"/>
+    </row>
+    <row r="739" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E739" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="740" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B740" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E740" s="1"/>
+    </row>
+    <row r="741" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E741" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="742" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E742" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="743" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E743" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="744" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E744" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="745" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B745" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="E745" s="2"/>
+    </row>
+    <row r="746" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E746" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="747" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B747" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E747" s="2"/>
+    </row>
+    <row r="748" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E748" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="749" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E749" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="750" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E750" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="751" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E751" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="752" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E752" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="753" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E753" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="754" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B754" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="E754" s="2"/>
+    </row>
+    <row r="755" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E755" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="735" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E735" s="2" t="s">
+    <row r="756" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A756"/>
+      <c r="B756" s="12"/>
+      <c r="C756" s="13"/>
+      <c r="D756" s="6"/>
+      <c r="E756" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="F756" s="26"/>
+      <c r="G756" s="27"/>
+      <c r="H756" s="28"/>
+      <c r="I756" s="29"/>
+      <c r="J756" s="29"/>
+      <c r="K756" s="29"/>
+      <c r="L756" s="29"/>
+      <c r="M756" s="29"/>
+    </row>
+    <row r="757" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E757" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="736" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B736" s="5" t="s">
+    <row r="758" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B758" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="E736" s="2"/>
-    </row>
-    <row r="737" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E737" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="738" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B738" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="E738" s="2"/>
-    </row>
-    <row r="739" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E739" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="740" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E740" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="741" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E741" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="742" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E742" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="743" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E743" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="744" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E744" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="745" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B745" s="5" t="s">
+      <c r="E758" s="2"/>
+    </row>
+    <row r="759" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E759" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="E745" s="2"/>
-    </row>
-    <row r="746" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E746" s="2" t="s">
+    </row>
+    <row r="760" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E760" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="761" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E761" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="762" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B762" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E762" s="1"/>
+    </row>
+    <row r="763" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E763" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="764" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B764" s="5" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="747" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A747"/>
-      <c r="B747" s="12"/>
-      <c r="C747" s="13"/>
-      <c r="D747" s="6"/>
-      <c r="E747" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="F747" s="26"/>
-      <c r="G747" s="27"/>
-      <c r="H747" s="28"/>
-      <c r="I747" s="29"/>
-      <c r="J747" s="29"/>
-      <c r="K747" s="29"/>
-      <c r="L747" s="29"/>
-      <c r="M747" s="29"/>
-    </row>
-    <row r="748" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E748" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="749" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B749" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="E749" s="2"/>
-    </row>
-    <row r="750" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E750" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="751" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E751" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="752" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E752" s="1" t="s">
+      <c r="E764" s="1"/>
+    </row>
+    <row r="765" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E765" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="753" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B753" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="E753" s="1"/>
-    </row>
-    <row r="754" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E754" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="755" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B755" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="E755" s="1"/>
-    </row>
-    <row r="756" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E756" s="1" t="s">
+    <row r="766" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E766" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="757" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E757" s="1" t="s">
+    <row r="767" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E767" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="758" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E758" s="2" t="s">
+    <row r="768" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E768" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="759" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E759" s="2" t="s">
+    <row r="769" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E769" s="2" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="760" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E760" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="761" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E761" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="762" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E762" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="763" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E763" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="764" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E764" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="765" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E765" s="11" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="766" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E766" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="767" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E767" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="768" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E768" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="769" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E769" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="770" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E770" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="771" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E771" s="1" t="s">
-        <v>430</v>
+      <c r="E771" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="772" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E772" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="773" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E773" s="2" t="s">
-        <v>432</v>
+      <c r="E773" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="774" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E774" s="2" t="s">
-        <v>433</v>
+      <c r="E774" s="11" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="775" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E775" s="2" t="s">
-        <v>434</v>
+      <c r="E775" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="776" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E776" s="2" t="s">
-        <v>435</v>
+      <c r="E776" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="777" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E777" s="2" t="s">
-        <v>436</v>
+      <c r="E777" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="778" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E778" s="2" t="s">
-        <v>437</v>
+      <c r="E778" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="779" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E779" s="2" t="s">
-        <v>720</v>
+      <c r="E779" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="780" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E780" s="2" t="s">
-        <v>438</v>
+      <c r="E780" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="781" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E781" s="2" t="s">
-        <v>439</v>
+      <c r="E781" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="782" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E782" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="783" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E783" s="2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="784" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E784" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="785" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E785" s="2" t="s">
-        <v>880</v>
+        <v>434</v>
       </c>
     </row>
     <row r="786" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E786" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="787" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E787" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="788" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B788" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="E788" s="2"/>
+      <c r="E788" s="2" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="789" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E789" s="1" t="s">
-        <v>445</v>
+      <c r="E789" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="790" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E790" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="791" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B791" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="E791" s="2"/>
+      <c r="E791" s="2" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="792" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E792" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="793" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E793" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="794" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E794" s="3" t="s">
-        <v>774</v>
+      <c r="E793" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="794" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E794" s="2" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="795" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E795" s="1" t="s">
-        <v>449</v>
+      <c r="E795" s="2" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="796" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E796" s="1" t="s">
-        <v>450</v>
+      <c r="E796" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="797" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E797" s="1" t="s">
-        <v>451</v>
-      </c>
+      <c r="B797" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="E797" s="2"/>
     </row>
     <row r="798" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E798" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="799" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E799" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="800" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B800" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E800" s="2"/>
+    </row>
+    <row r="801" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E801" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="802" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E802" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="803" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E803" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="804" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E804" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="805" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E805" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="806" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E806" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="807" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E807" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="808" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E808" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="799" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E799" s="1" t="s">
+    <row r="809" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E809" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="800" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E800" s="1" t="s">
+    <row r="810" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E810" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="801" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E801" s="2" t="s">
+    <row r="811" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E811" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="802" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E802" s="2" t="s">
+    <row r="812" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E812" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="803" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E803" s="2" t="s">
+    <row r="813" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E813" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="804" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E804" s="2" t="s">
+    <row r="814" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E814" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="805" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E805" s="2" t="s">
+    <row r="815" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E815" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="816" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E816" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="806" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E806" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="807" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E807" s="2" t="s">
+    <row r="817" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E817" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="808" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E808" s="2" t="s">
+    <row r="818" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E818" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="809" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E809" s="2" t="s">
+    <row r="819" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E819" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="810" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E810" s="1" t="s">
+    <row r="820" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E820" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="811" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E811" s="1" t="s">
+    <row r="821" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E821" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="812" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E812" s="1" t="s">
+    <row r="822" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E822" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="813" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E813" s="2" t="s">
+    <row r="823" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E823" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="814" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E814" s="2" t="s">
+    <row r="824" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B824" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E824" s="2"/>
+    </row>
+    <row r="825" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C825" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="E825" s="2"/>
+    </row>
+    <row r="826" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C826" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="E826" s="2"/>
+    </row>
+    <row r="827" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E827" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="815" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B815" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="E815" s="2"/>
-    </row>
-    <row r="816" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="C816" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="E816" s="2"/>
-    </row>
-    <row r="817" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E817" s="1" t="s">
+    <row r="828" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E828" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="818" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E818" s="2" t="s">
+    <row r="829" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E829" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="819" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E819" s="1" t="s">
+    <row r="830" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E830" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="820" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E820" s="2" t="s">
+    <row r="831" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E831" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="821" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E821" s="2" t="s">
+    <row r="832" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E832" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="822" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E822" s="2" t="s">
+    <row r="833" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E833" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="823" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E823" s="2" t="s">
+    <row r="834" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E834" s="2" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="824" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E824" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="825" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E825" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="826" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E826" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="827" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E827" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="828" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E828" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="829" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E829" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="830" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E830" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="831" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E831" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="832" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E832" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="833" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E833" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="834" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E834" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="835" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E835" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="836" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E836" s="2" t="s">
-        <v>738</v>
+      <c r="E836" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="837" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E837" s="2" t="s">
-        <v>485</v>
+      <c r="E837" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="838" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E838" s="2" t="s">
-        <v>739</v>
+        <v>478</v>
       </c>
     </row>
     <row r="839" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E839" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="840" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E840" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="841" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E841" s="2" t="s">
-        <v>488</v>
+      <c r="E841" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="842" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E842" s="2" t="s">
-        <v>489</v>
+      <c r="E842" s="1" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="843" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E843" s="2" t="s">
-        <v>490</v>
+      <c r="E843" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="844" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E844" s="2" t="s">
-        <v>491</v>
+      <c r="E844" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="845" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E845" s="2" t="s">
-        <v>766</v>
+      <c r="E845" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="846" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E846" s="2" t="s">
-        <v>492</v>
+        <v>734</v>
       </c>
     </row>
     <row r="847" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E847" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="848" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E848" s="2" t="s">
-        <v>494</v>
+        <v>735</v>
       </c>
     </row>
     <row r="849" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E849" s="2" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="850" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E850" s="2" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="851" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E851" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="852" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B852" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="E852" s="2"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="852" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E852" s="2" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="853" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E853" s="1" t="s">
-        <v>498</v>
+      <c r="E853" s="2" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="854" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E854" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E855" s="2" t="s">
-        <v>500</v>
+        <v>762</v>
       </c>
     </row>
     <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B856" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="E856" s="2"/>
+      <c r="E856" s="2" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E857" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="858" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E858" s="1" t="s">
-        <v>502</v>
+      <c r="E858" s="2" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="859" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E859" s="1" t="s">
-        <v>503</v>
+      <c r="E859" s="2" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="860" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E860" s="1" t="s">
-        <v>504</v>
+      <c r="E860" s="2" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="861" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E861" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E862" s="1" t="s">
-        <v>506</v>
-      </c>
+      <c r="E861" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B862" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="E862" s="2"/>
     </row>
     <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E863" s="2" t="s">
-        <v>507</v>
+      <c r="E863" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="864" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E864" s="1" t="s">
-        <v>508</v>
+      <c r="E864" s="2" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="865" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E865" s="1" t="s">
-        <v>510</v>
+      <c r="E865" s="2" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="866" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E866" s="2" t="s">
-        <v>509</v>
-      </c>
+      <c r="B866" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E866" s="2"/>
     </row>
     <row r="867" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E867" s="2" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="868" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E868" s="2" t="s">
-        <v>512</v>
+      <c r="E868" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="869" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E869" s="2" t="s">
-        <v>513</v>
+      <c r="E869" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="870" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E870" s="2" t="s">
-        <v>514</v>
+      <c r="E870" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="871" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E871" s="2" t="s">
-        <v>515</v>
+      <c r="E871" s="1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="872" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E872" s="2" t="s">
-        <v>516</v>
+      <c r="E872" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="873" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E873" s="1" t="s">
-        <v>517</v>
+      <c r="E873" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="874" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E874" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="875" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E875" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="876" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E876" s="1" t="s">
-        <v>520</v>
+      <c r="E876" s="2" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="877" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B877" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="E877" s="1"/>
+      <c r="E877" s="2" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="878" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E878" s="2" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="879" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E879" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="880" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E880" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="881" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E881" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="882" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E882" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="883" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E883" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="884" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E884" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="885" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E885" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="886" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E886" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="887" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B887" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E887" s="1"/>
+    </row>
+    <row r="888" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E888" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="889" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E889" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="890" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E890" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="880" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E880" s="1" t="s">
+    <row r="891" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E891" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="881" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E881" s="1" t="s">
+    <row r="892" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E892" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="882" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E882" s="2" t="s">
+    <row r="893" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E893" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="894" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E894" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="883" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E883" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="884" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E884" s="2" t="s">
+    <row r="895" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E895" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="885" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E885" s="2" t="s">
+    <row r="896" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E896" s="2" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="886" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E886" s="2" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/data/taxon genera files/O genera reduced.xlsx
+++ b/data/taxon genera files/O genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="916">
   <si>
     <r>
       <t>Oblatinella arcuata</t>
@@ -2915,34 +2915,6 @@
   </si>
   <si>
     <r>
-      <t>Onondagaella asymmetrica</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Deunff) Cramer 1967</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Onondagaella asymmetrica</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Deunff) Cramer emend. Playford 1977a</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Onondagella cylindrica</t>
     </r>
     <r>
@@ -8083,9 +8055,6 @@
   </si>
   <si>
     <t>ONCHIUM</t>
-  </si>
-  <si>
-    <t>ONONDAGAELLA</t>
   </si>
   <si>
     <r>
@@ -13177,6 +13146,503 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Eisenack 1968b; p. 91-92.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Eisenack emend. Kjellström 1971a; p. 49.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium occultatum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Burmann) Eisenack, Cramer &amp; Díez 1976</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium procerum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Burmann) Eisenack, Cramer &amp; Díez 1976</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium quadricorne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Burmann) Eisenack, Cramer &amp; Díez 1976</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ORYGMAHAPSIS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Colbath 1987; p. 66.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Orygmahapsis fistulosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Colbath) Colbath 1987 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium rectangulare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Eisenack) Eisenack 1968b (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ophioglossisporites cullensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Zamaloa 2004</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Onychiumsporites jingshaensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Wang &amp; Yu 2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ovoidites circumplicatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Zavattieri, Gutiérrez &amp; Monti 2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ovoidites tripartitus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Zavattieri, Gutiérrez &amp; Monti 2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ovoidites scissus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Balme &amp; Hennelly) Zavattieri, Gutiérrez &amp; Monti 2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ovoidites emarginatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Lubomirova</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Oligokolpoma balticus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Iakovleva, Aleksandrova &amp; Mychko 2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Oligosphaeridium araneum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Niechwedowicz 2022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Operculodinium? megagranum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Head &amp; Westphal 1999</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Onondagella asymmetrica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Deunff) Cramer emend. Playford 1977a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Onondagella sanpetrensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cramer 1966b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ONONDAGELLA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cramer emend. Playford 1977; p. 30.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Onondagella</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cramer 1966b; p. 86-87.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Onondagella asymmetrica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Deunff) Cramer 1967 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Osmundacidites panchetensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kar 1970</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Orthosphaeridium bispinosum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> var. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bisculptum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Navidi-Izad et al. 2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Orthosphaeridium rectangulare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> var. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>quadricornis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Navidi-Izad et al. 2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Eisenack emend. Turner 1984; p. 125.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">ORTHOSPHAERIDIUM </t>
     </r>
     <r>
@@ -13186,7 +13652,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Eisenack emend. Turner 1984; p. 125.</t>
+      <t>Eisenack emend. Navidi-Izad et al. 2020</t>
     </r>
   </si>
   <si>
@@ -13194,20 +13660,20 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Orthosphaeridium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Eisenack 1968b; p. 91-92.</t>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orthosphaeridium iranense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ghavidel-syooki 2023</t>
     </r>
   </si>
   <si>
@@ -13215,20 +13681,59 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Orthosphaeridium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Eisenack emend. Kjellström 1971a; p. 49.</t>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Oppilatala? tenuiramusculosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Stockmans &amp; Willière, 1963) Mullins 2002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Osmundacidites spinulatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Klimko) Semenova 1970</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Osmundacidites speciosus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Verbitskaya) Semenova 1970</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Osmundacidites densiornamentatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Klimko) Semenova 1970</t>
     </r>
   </si>
   <si>
@@ -13236,20 +13741,44 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Orthosphaeridium occultatum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Burmann) Eisenack, Cramer &amp; Díez 1976</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Osmundacidites cingulatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Semenova 1970</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Osmundacidites echinatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Klimko) Semenova 1970</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Osmundacidites nicanicus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Verbitskaya) Semenova 1970</t>
     </r>
   </si>
   <si>
@@ -13257,115 +13786,44 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Orthosphaeridium procerum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Burmann) Eisenack, Cramer &amp; Díez 1976</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Orthosphaeridium quadricorne</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Burmann) Eisenack, Cramer &amp; Díez 1976</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ORYGMAHAPSIS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Colbath 1987; p. 66.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Orygmahapsis fistulosa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Colbath) Colbath 1987 (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Orthosphaeridium rectangulare</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Eisenack) Eisenack 1968b (T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ophioglossisporites cullensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Zamaloa 2004</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Onychiumsporites jingshaensis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Wang &amp; Yu 2000</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Osmundacidites versiformis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Semenova 1970</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Osmunda speciosa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verbitskaya 1962</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Osmunda crassirimosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Klimko, in Samoilovich et al., 1961</t>
     </r>
   </si>
 </sst>
@@ -13542,7 +14000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -13614,6 +14072,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13924,10 +14388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M896"/>
+  <dimension ref="A1:M920"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="N331" sqref="N331"/>
+    <sheetView tabSelected="1" topLeftCell="A897" workbookViewId="0">
+      <selection activeCell="E920" sqref="E920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13941,28 +14405,28 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E4" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -13973,7 +14437,7 @@
     </row>
     <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -13998,28 +14462,28 @@
     </row>
     <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E14" s="11" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E15" s="11" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E16" s="11" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E17" s="11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -14028,7 +14492,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="11" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
@@ -14045,7 +14509,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="18" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
@@ -14058,53 +14522,53 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E20" s="11" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E21" s="11" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E22" s="11" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E23" s="11" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E24" s="18" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E25" s="11" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E26" s="11" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -14120,7 +14584,7 @@
     </row>
     <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14225,24 +14689,24 @@
     </row>
     <row r="53" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E54" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E56" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14267,13 +14731,13 @@
     </row>
     <row r="61" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E62" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14288,18 +14752,18 @@
     </row>
     <row r="65" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E66" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B67" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E67" s="2"/>
     </row>
@@ -14310,7 +14774,7 @@
     </row>
     <row r="69" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E69" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14330,7 +14794,7 @@
     </row>
     <row r="73" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -14341,12 +14805,12 @@
     </row>
     <row r="75" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E75" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B76" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E76" s="1"/>
     </row>
@@ -14357,18 +14821,18 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E79" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B80" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E80" s="1"/>
     </row>
@@ -14389,7 +14853,7 @@
     </row>
     <row r="84" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B84" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E84" s="2"/>
     </row>
@@ -14405,18 +14869,18 @@
     </row>
     <row r="87" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B87" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E88" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B89" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -14432,29 +14896,29 @@
     </row>
     <row r="92" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E93" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B94" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E95" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B96" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E96" s="2"/>
     </row>
@@ -14475,7 +14939,7 @@
     </row>
     <row r="100" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E100" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="101" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14495,7 +14959,7 @@
     </row>
     <row r="104" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E104" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="105" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14510,7 +14974,7 @@
     </row>
     <row r="107" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E107" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="108" spans="5:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -14559,7 +15023,7 @@
       <c r="C116" s="20"/>
       <c r="D116" s="21"/>
       <c r="E116" s="18" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F116" s="22"/>
       <c r="G116" s="22"/>
@@ -14577,7 +15041,7 @@
     </row>
     <row r="118" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E118" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
@@ -14657,7 +15121,7 @@
     </row>
     <row r="134" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E134" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14682,18 +15146,18 @@
     </row>
     <row r="139" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E140" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E141" s="1"/>
     </row>
@@ -14744,12 +15208,12 @@
     </row>
     <row r="151" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E151" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="152" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E152" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="153" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14779,7 +15243,7 @@
     </row>
     <row r="158" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E158" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="159" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14809,7 +15273,7 @@
     </row>
     <row r="164" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E164" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14824,12 +15288,12 @@
     </row>
     <row r="167" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E167" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E168" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14854,7 +15318,7 @@
     </row>
     <row r="173" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -14875,7 +15339,7 @@
     </row>
     <row r="177" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E177" s="2"/>
     </row>
@@ -14886,7 +15350,7 @@
     </row>
     <row r="179" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E179" s="1"/>
     </row>
@@ -14907,7 +15371,7 @@
     </row>
     <row r="183" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B183" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E183" s="2"/>
     </row>
@@ -14923,7 +15387,7 @@
     </row>
     <row r="186" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E186" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -14933,12 +15397,12 @@
     </row>
     <row r="188" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E188" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B189" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E189" s="2"/>
     </row>
@@ -14949,7 +15413,7 @@
     </row>
     <row r="191" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B191" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E191" s="2"/>
     </row>
@@ -14960,33 +15424,33 @@
     </row>
     <row r="193" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E193" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B194" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E195" s="25" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="196" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E196" s="18" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="197" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E197" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E198" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="199" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15001,40 +15465,40 @@
     </row>
     <row r="201" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E201" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B202" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E203" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="204" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B204" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E205" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B206" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E207" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -15044,18 +15508,18 @@
     </row>
     <row r="209" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B209" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E210" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B211" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E211" s="2"/>
     </row>
@@ -15076,7 +15540,7 @@
     </row>
     <row r="215" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E215" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="216" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -15085,7 +15549,7 @@
       <c r="C216" s="20"/>
       <c r="D216" s="21"/>
       <c r="E216" s="18" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F216" s="22"/>
       <c r="G216" s="22"/>
@@ -15098,3667 +15562,3819 @@
     </row>
     <row r="217" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E217" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B218" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E219" s="1" t="s">
-        <v>125</v>
+    <row r="219" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E219" s="30" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E220" s="1" t="s">
-        <v>579</v>
+        <v>125</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B221" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="E221" s="1"/>
+      <c r="E221" s="1" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="222" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E222" s="1" t="s">
+      <c r="B222" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E223" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B223" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="E223" s="1"/>
-    </row>
     <row r="224" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E224" s="2" t="s">
-        <v>640</v>
-      </c>
+      <c r="B224" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E224" s="1"/>
     </row>
     <row r="225" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E225" s="1" t="s">
-        <v>127</v>
+      <c r="E225" s="2" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E226" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E227" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E227" s="2" t="s">
+    <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E228" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B228" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="E228" s="2"/>
-    </row>
     <row r="229" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E229" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="B229" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E229" s="2"/>
     </row>
     <row r="230" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E230" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E231" s="4" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E231" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="232" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E232" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="233" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E233" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E234" s="1" t="s">
-        <v>135</v>
+        <v>893</v>
       </c>
     </row>
     <row r="235" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E235" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E236" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E237" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="236" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E236" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="237" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E237" s="2" t="s">
+    <row r="238" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E238" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E239" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="238" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E238" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="239" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E239" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="240" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E240" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="241" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E241" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="242" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E242" s="1" t="s">
-        <v>765</v>
+        <v>140</v>
       </c>
     </row>
     <row r="243" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E243" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="244" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E244" s="1" t="s">
-        <v>143</v>
+        <v>762</v>
       </c>
     </row>
     <row r="245" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E245" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="246" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E246" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="247" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E247" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="248" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E248" s="1" t="s">
-        <v>641</v>
+        <v>145</v>
       </c>
     </row>
     <row r="249" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E249" s="1" t="s">
-        <v>642</v>
+        <v>146</v>
       </c>
     </row>
     <row r="250" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E250" s="1" t="s">
-        <v>147</v>
+        <v>638</v>
       </c>
     </row>
     <row r="251" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E251" s="1" t="s">
-        <v>731</v>
+        <v>639</v>
       </c>
     </row>
     <row r="252" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E252" s="1" t="s">
-        <v>643</v>
+        <v>147</v>
       </c>
     </row>
     <row r="253" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E253" s="1" t="s">
-        <v>148</v>
+        <v>728</v>
       </c>
     </row>
     <row r="254" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E254" s="1" t="s">
-        <v>149</v>
+        <v>640</v>
       </c>
     </row>
     <row r="255" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E255" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="256" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E256" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="257" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E257" s="2" t="s">
-        <v>152</v>
+      <c r="E257" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="258" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E258" s="1" t="s">
-        <v>766</v>
+        <v>151</v>
       </c>
     </row>
     <row r="259" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E259" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="260" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E260" s="2" t="s">
-        <v>154</v>
+      <c r="E260" s="1" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="261" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E261" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="262" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E262" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="263" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E263" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="264" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E264" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="265" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E265" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="266" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E266" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="267" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E267" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="268" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E268" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="269" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E269" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="270" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E270" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="271" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E271" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="272" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E272" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="273" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E273" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="274" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E274" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="275" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E275" s="2" t="s">
-        <v>732</v>
+        <v>167</v>
       </c>
     </row>
     <row r="276" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E276" s="2" t="s">
-        <v>767</v>
+        <v>168</v>
       </c>
     </row>
     <row r="277" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E277" s="2" t="s">
-        <v>769</v>
+        <v>729</v>
       </c>
     </row>
     <row r="278" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E278" s="2" t="s">
-        <v>169</v>
+        <v>764</v>
       </c>
     </row>
     <row r="279" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E279" s="2" t="s">
-        <v>170</v>
+        <v>766</v>
       </c>
     </row>
     <row r="280" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E280" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="281" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E281" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="282" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E282" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="283" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E283" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="284" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E284" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="285" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E285" s="2" t="s">
-        <v>768</v>
+        <v>174</v>
       </c>
     </row>
     <row r="286" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E286" s="1" t="s">
-        <v>764</v>
+      <c r="E286" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="287" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E287" s="2" t="s">
-        <v>176</v>
+        <v>765</v>
       </c>
     </row>
     <row r="288" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E288" s="2" t="s">
-        <v>177</v>
+      <c r="E288" s="1" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="289" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E289" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="290" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E290" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="291" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E291" s="4" t="s">
-        <v>180</v>
+      <c r="E291" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="292" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E292" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="293" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E293" s="2" t="s">
-        <v>182</v>
+      <c r="E293" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="294" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E294" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E295" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E296" s="2" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="295" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B295" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="E295" s="2"/>
-    </row>
-    <row r="296" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E296" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="297" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B297" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="E297" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="E297" s="2"/>
     </row>
     <row r="298" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E298" s="2" t="s">
-        <v>645</v>
+      <c r="E298" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="299" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B299" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="E299" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="E299" s="1"/>
     </row>
     <row r="300" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E300" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B301" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E301" s="2"/>
+    </row>
+    <row r="302" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E302" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="301" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E301" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="302" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B302" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="E302" s="2"/>
     </row>
     <row r="303" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E303" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="304" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E304" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B304" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B305" s="5" t="s">
+      <c r="E305" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E305" s="1"/>
     </row>
     <row r="306" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E306" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="307" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E307" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="B307" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="E307" s="1"/>
     </row>
     <row r="308" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E308" s="2" t="s">
-        <v>583</v>
+        <v>188</v>
       </c>
     </row>
     <row r="309" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E309" s="2" t="s">
-        <v>190</v>
+      <c r="E309" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="310" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B310" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="E310" s="2"/>
+      <c r="E310" s="2" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="311" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E311" s="2" t="s">
-        <v>587</v>
+        <v>190</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E312" s="1" t="s">
+      <c r="B312" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E312" s="2"/>
+    </row>
+    <row r="313" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E313" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E314" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B313" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="E313" s="1"/>
-    </row>
-    <row r="314" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D314" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="E314" s="1"/>
-    </row>
-    <row r="315" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E315" s="2" t="s">
+    <row r="315" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B315" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E315" s="1"/>
+    </row>
+    <row r="316" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D316" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E316" s="1"/>
+    </row>
+    <row r="317" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E317" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="316" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A316" s="19"/>
-      <c r="B316" s="20"/>
-      <c r="C316" s="20"/>
-      <c r="D316" s="21"/>
-      <c r="E316" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="G316" s="22"/>
-      <c r="H316" s="22"/>
-      <c r="I316" s="19"/>
-      <c r="J316" s="19"/>
-      <c r="K316" s="19"/>
-      <c r="L316" s="19"/>
-      <c r="M316" s="19"/>
-    </row>
-    <row r="317" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E317" s="1" t="s">
+    <row r="318" spans="1:13" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A318" s="19"/>
+      <c r="B318" s="20"/>
+      <c r="C318" s="20"/>
+      <c r="D318" s="21"/>
+      <c r="E318" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="G318" s="22"/>
+      <c r="H318" s="22"/>
+      <c r="I318" s="19"/>
+      <c r="J318" s="19"/>
+      <c r="K318" s="19"/>
+      <c r="L318" s="19"/>
+      <c r="M318" s="19"/>
+    </row>
+    <row r="319" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E319" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E318" s="2" t="s">
+    <row r="320" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E320" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E319" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B320" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="E320" s="2"/>
-    </row>
     <row r="321" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E321" s="1" t="s">
-        <v>650</v>
+      <c r="E321" s="2" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="322" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B322" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="E322" s="1"/>
+        <v>646</v>
+      </c>
+      <c r="E322" s="2"/>
     </row>
     <row r="323" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E323" s="4" t="s">
-        <v>195</v>
+      <c r="E323" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="324" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B324" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="E324" s="4"/>
+        <v>539</v>
+      </c>
+      <c r="E324" s="1"/>
     </row>
     <row r="325" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E325" s="2" t="s">
-        <v>590</v>
+      <c r="E325" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="326" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B326" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="E326" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="E326" s="4"/>
     </row>
     <row r="327" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E327" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B328" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="E328" s="2"/>
+    </row>
+    <row r="329" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C329" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="E329" s="2"/>
+    </row>
+    <row r="330" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E330" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E331" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E332" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E328" s="2" t="s">
+    <row r="333" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E333" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E329" s="2" t="s">
+    <row r="334" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E334" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B335" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E335" s="1"/>
+    </row>
+    <row r="336" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E336" s="11" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E337" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E338" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E330" s="1" t="s">
+    <row r="339" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E339" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B331" s="5" t="s">
+    <row r="340" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B340" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E340" s="2"/>
+    </row>
+    <row r="341" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E341" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E342" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E343" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E344" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B345" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E345" s="2"/>
+    </row>
+    <row r="346" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E346" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E347" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E348" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E349" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E350" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E351" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E352" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E353" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E354" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A355"/>
+      <c r="B355" s="12"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="F355" s="26"/>
+      <c r="G355" s="27"/>
+      <c r="H355" s="28"/>
+      <c r="I355" s="29"/>
+      <c r="J355" s="29"/>
+      <c r="K355" s="29"/>
+      <c r="L355" s="29"/>
+      <c r="M355" s="29"/>
+    </row>
+    <row r="356" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E356" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E357" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B358" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="E358" s="1"/>
+    </row>
+    <row r="359" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E359" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B360" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E360" s="2"/>
+    </row>
+    <row r="361" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E361" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E362" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B363" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E363" s="2"/>
+    </row>
+    <row r="364" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E364" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E365" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E366" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E367" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E331" s="1"/>
-    </row>
-    <row r="332" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E332" s="11" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="333" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E333" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="334" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E334" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="335" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E335" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="336" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B336" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="E336" s="2"/>
-    </row>
-    <row r="337" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E337" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E338" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E339" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E340" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B341" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="E341" s="2"/>
-    </row>
-    <row r="342" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E342" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E343" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E344" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E345" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E346" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E347" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E348" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E349" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E350" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A351"/>
-      <c r="B351" s="12"/>
-      <c r="C351" s="13"/>
-      <c r="D351" s="6"/>
-      <c r="E351" s="18" t="s">
-        <v>875</v>
-      </c>
-      <c r="F351" s="26"/>
-      <c r="G351" s="27"/>
-      <c r="H351" s="28"/>
-      <c r="I351" s="29"/>
-      <c r="J351" s="29"/>
-      <c r="K351" s="29"/>
-      <c r="L351" s="29"/>
-      <c r="M351" s="29"/>
-    </row>
-    <row r="352" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E352" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="353" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E353" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="354" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B354" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="E354" s="1"/>
-    </row>
-    <row r="355" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E355" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="356" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B356" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="E356" s="2"/>
-    </row>
-    <row r="357" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E357" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="358" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E358" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="359" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B359" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="E359" s="2"/>
-    </row>
-    <row r="360" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E360" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="361" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E361" s="2" t="s">
+    </row>
+    <row r="368" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E368" s="2" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="362" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E362" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="363" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E363" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="364" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E364" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="365" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E365" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="366" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E366" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="367" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E367" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="368" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E368" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="369" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E369" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="370" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E370" s="1" t="s">
-        <v>220</v>
+        <v>752</v>
       </c>
     </row>
     <row r="371" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E371" s="1" t="s">
-        <v>221</v>
+        <v>753</v>
       </c>
     </row>
     <row r="372" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E372" s="2" t="s">
-        <v>222</v>
+      <c r="E372" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="373" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E373" s="1" t="s">
-        <v>595</v>
+        <v>217</v>
       </c>
     </row>
     <row r="374" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E374" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="375" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E375" s="10" t="s">
-        <v>861</v>
+      <c r="E375" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="376" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E376" s="1" t="s">
-        <v>224</v>
+      <c r="E376" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="377" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E377" s="1" t="s">
-        <v>225</v>
+        <v>592</v>
       </c>
     </row>
     <row r="378" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E378" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="379" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E379" s="1" t="s">
-        <v>862</v>
+      <c r="E379" s="10" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="380" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E380" s="1" t="s">
-        <v>758</v>
+        <v>222</v>
       </c>
     </row>
     <row r="381" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E381" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="382" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E382" s="2" t="s">
-        <v>228</v>
+      <c r="E382" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="383" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E383" s="1" t="s">
-        <v>229</v>
+        <v>859</v>
       </c>
     </row>
     <row r="384" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E384" s="1" t="s">
-        <v>230</v>
+        <v>755</v>
       </c>
     </row>
     <row r="385" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E385" s="2" t="s">
-        <v>231</v>
+      <c r="E385" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="386" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E386" s="2" t="s">
-        <v>759</v>
+        <v>226</v>
       </c>
     </row>
     <row r="387" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E387" s="2" t="s">
-        <v>232</v>
+      <c r="E387" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="388" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E388" s="2" t="s">
-        <v>233</v>
+      <c r="E388" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="389" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E389" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="390" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E390" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="391" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E391" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="392" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E392" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="393" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E393" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="394" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E394" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="395" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E395" s="1" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="390" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E390" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="391" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E391" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="392" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E392" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="393" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E393" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="394" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E394" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="395" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E395" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="396" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E396" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="397" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E397" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="398" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E398" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="399" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E399" s="3" t="s">
-        <v>751</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="398" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E398" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="399" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E399" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="400" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E400" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="401" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E401" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="402" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E402" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="403" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E403" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="401" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E401" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="402" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E402" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="403" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E403" s="3" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="404" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E404" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="405" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E405" s="2" t="s">
-        <v>247</v>
+      <c r="E404" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="405" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E405" s="3" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="406" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E406" s="2" t="s">
-        <v>248</v>
+      <c r="E406" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="407" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E407" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="408" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E408" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="409" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E409" s="1" t="s">
-        <v>251</v>
+      <c r="E409" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="410" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E410" s="1" t="s">
-        <v>753</v>
+      <c r="E410" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="411" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E411" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="412" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E412" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="413" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E413" s="2" t="s">
-        <v>254</v>
+      <c r="E413" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="414" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E414" s="2" t="s">
-        <v>255</v>
+      <c r="E414" s="1" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="415" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E415" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="416" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E416" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="417" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E417" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="418" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E418" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="419" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E419" s="10" t="s">
-        <v>736</v>
+      <c r="E419" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="420" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E420" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="421" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E421" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="422" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E422" s="1" t="s">
-        <v>262</v>
+      <c r="E422" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="423" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E423" s="2" t="s">
-        <v>263</v>
+      <c r="E423" s="10" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="424" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E424" s="2" t="s">
-        <v>656</v>
+        <v>258</v>
       </c>
     </row>
     <row r="425" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E425" s="2" t="s">
-        <v>754</v>
+        <v>259</v>
       </c>
     </row>
     <row r="426" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E426" s="2" t="s">
-        <v>264</v>
+      <c r="E426" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="427" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E427" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="428" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E428" s="2" t="s">
-        <v>266</v>
+        <v>653</v>
       </c>
     </row>
     <row r="429" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E429" s="2" t="s">
-        <v>267</v>
+        <v>751</v>
       </c>
     </row>
     <row r="430" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E430" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="431" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E431" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="432" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E432" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E433" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E434" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="435" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E435" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="436" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E436" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E437" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="432" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E432" s="1" t="s">
+    <row r="438" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E438" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="433" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E433" s="2" t="s">
+    <row r="439" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E439" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="434" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E434" s="2" t="s">
+    <row r="440" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E440" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="435" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E435" s="1" t="s">
+    <row r="441" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E441" s="30" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="442" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E442" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="436" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E436" s="1" t="s">
+    <row r="443" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E443" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="437" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E437" s="2" t="s">
+    <row r="444" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E444" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E438" s="2" t="s">
+    <row r="445" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E445" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E439" s="2" t="s">
+    <row r="446" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E446" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E440" s="2" t="s">
+    <row r="447" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B447" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E447" s="2"/>
+    </row>
+    <row r="448" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E448" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E441" s="2" t="s">
+    <row r="449" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E449" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E450" s="2" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B442" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="E442" s="2"/>
-    </row>
-    <row r="443" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E443" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E444" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E445" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B446" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="E446" s="2"/>
-    </row>
-    <row r="447" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A447"/>
-      <c r="B447" s="12"/>
-      <c r="C447" s="13"/>
-      <c r="D447" s="14"/>
-      <c r="E447" s="18" t="s">
-        <v>787</v>
-      </c>
-      <c r="F447" s="15"/>
-      <c r="G447" s="16"/>
-      <c r="H447" s="17"/>
-      <c r="I447"/>
-      <c r="J447"/>
-      <c r="K447"/>
-      <c r="L447"/>
-      <c r="M447"/>
-    </row>
-    <row r="448" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A448"/>
-      <c r="B448" s="12"/>
-      <c r="C448" s="13"/>
-      <c r="D448" s="14"/>
-      <c r="E448" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="F448" s="23"/>
-      <c r="G448" s="16"/>
-      <c r="H448" s="17"/>
-      <c r="I448"/>
-      <c r="J448"/>
-      <c r="K448"/>
-      <c r="L448"/>
-      <c r="M448"/>
-    </row>
-    <row r="449" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A449"/>
-      <c r="B449" s="12"/>
-      <c r="C449" s="13"/>
-      <c r="D449" s="14"/>
-      <c r="E449" s="11" t="s">
-        <v>789</v>
-      </c>
-      <c r="F449" s="15"/>
-      <c r="G449" s="16"/>
-      <c r="H449" s="17"/>
-      <c r="I449"/>
-      <c r="J449"/>
-      <c r="K449"/>
-      <c r="L449"/>
-      <c r="M449"/>
-    </row>
-    <row r="450" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E450" s="18" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="451" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B451" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E451" s="2"/>
+    </row>
+    <row r="452" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A452"/>
+      <c r="B452" s="12"/>
+      <c r="C452" s="13"/>
+      <c r="D452" s="14"/>
+      <c r="E452" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="F452" s="15"/>
+      <c r="G452" s="16"/>
+      <c r="H452" s="17"/>
+      <c r="I452"/>
+      <c r="J452"/>
+      <c r="K452"/>
+      <c r="L452"/>
+      <c r="M452"/>
+    </row>
+    <row r="453" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A453"/>
+      <c r="B453" s="12"/>
+      <c r="C453" s="13"/>
+      <c r="D453" s="14"/>
+      <c r="E453" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="F453" s="23"/>
+      <c r="G453" s="16"/>
+      <c r="H453" s="17"/>
+      <c r="I453"/>
+      <c r="J453"/>
+      <c r="K453"/>
+      <c r="L453"/>
+      <c r="M453"/>
+    </row>
+    <row r="454" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A454"/>
+      <c r="B454" s="12"/>
+      <c r="C454" s="13"/>
+      <c r="D454" s="14"/>
+      <c r="E454" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="F454" s="15"/>
+      <c r="G454" s="16"/>
+      <c r="H454" s="17"/>
+      <c r="I454"/>
+      <c r="J454"/>
+      <c r="K454"/>
+      <c r="L454"/>
+      <c r="M454"/>
+    </row>
+    <row r="455" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E455" s="18" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B456" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E456" s="2"/>
+    </row>
+    <row r="457" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E457" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B458" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E458" s="1"/>
+    </row>
+    <row r="459" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E459" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E460" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E461" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="E451" s="2"/>
-    </row>
-    <row r="452" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E452" s="1" t="s">
+    </row>
+    <row r="462" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B462" s="5" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="453" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B453" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="E453" s="1"/>
-    </row>
-    <row r="454" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E454" s="2" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="455" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E455" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="456" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E456" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="457" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B457" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="E457" s="2"/>
-    </row>
-    <row r="458" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E458" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="459" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B459" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="E459" s="1"/>
-    </row>
-    <row r="460" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D460" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="E460" s="1"/>
-    </row>
-    <row r="461" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E461" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="462" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E462" s="1" t="s">
-        <v>284</v>
-      </c>
+      <c r="E462" s="2"/>
     </row>
     <row r="463" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E463" s="1" t="s">
-        <v>285</v>
+        <v>662</v>
       </c>
     </row>
     <row r="464" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E464" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="B464" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E464" s="1"/>
     </row>
     <row r="465" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E465" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="D465" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E465" s="1"/>
     </row>
     <row r="466" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E466" s="2" t="s">
-        <v>288</v>
+      <c r="E466" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="467" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E467" s="2" t="s">
-        <v>289</v>
+      <c r="E467" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="468" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E468" s="2" t="s">
-        <v>290</v>
+      <c r="E468" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="469" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B469" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="E469" s="2"/>
+      <c r="E469" s="2" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="470" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E470" s="2" t="s">
-        <v>564</v>
+        <v>285</v>
       </c>
     </row>
     <row r="471" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B471" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="E471" s="2"/>
+      <c r="E471" s="2" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="472" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E472" s="1" t="s">
+      <c r="E472" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="473" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E473" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="474" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B474" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E474" s="2"/>
+    </row>
+    <row r="475" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E475" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B476" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="E476" s="2"/>
+    </row>
+    <row r="477" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E477" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="478" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E478" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="479" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E479" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="473" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E473" s="1" t="s">
+    <row r="480" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E480" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="474" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E474" s="2" t="s">
+    <row r="481" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E481" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="475" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E475" s="1" t="s">
+    <row r="482" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E482" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="483" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E483" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="484" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E484" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="476" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E476" s="2" t="s">
+    <row r="485" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E485" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="477" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E477" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="478" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E478" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="479" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E479" s="1" t="s">
+    <row r="486" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E486" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="480" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E480" s="2" t="s">
+    <row r="487" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E487" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="481" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E481" s="2" t="s">
+    <row r="488" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E488" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="482" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E482" s="2" t="s">
+    <row r="489" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E489" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="490" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E490" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="483" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E483" s="2" t="s">
+    <row r="491" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E491" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="F491" s="30"/>
+      <c r="G491" s="30"/>
+      <c r="H491" s="30"/>
+    </row>
+    <row r="492" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B492" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E492" s="1"/>
+    </row>
+    <row r="493" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E493" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="484" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E484" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="485" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E485" s="1" t="s">
+    <row r="494" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E494" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="495" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B495" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E495" s="2"/>
+    </row>
+    <row r="496" spans="2:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E496" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="486" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B486" s="5" t="s">
+    <row r="497" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E497" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="E486" s="1"/>
-    </row>
-    <row r="487" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E487" s="1" t="s">
+    </row>
+    <row r="498" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E498" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="488" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E488" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="489" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B489" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="E489" s="2"/>
-    </row>
-    <row r="490" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E490" s="1" t="s">
+    <row r="499" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E499" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="491" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E491" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="492" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E492" s="1" t="s">
+    <row r="500" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E500" s="1" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="493" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E493" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="494" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E494" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="495" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B495" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="E495" s="1"/>
-    </row>
-    <row r="496" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E496" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="497" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B497" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="E497" s="2"/>
-    </row>
-    <row r="498" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E498" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="499" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B499" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="E499" s="2"/>
-    </row>
-    <row r="500" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E500" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="501" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B501" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="E501" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="E501" s="1"/>
     </row>
     <row r="502" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E502" s="11" t="s">
+      <c r="E502" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B503" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E503" s="2"/>
+    </row>
+    <row r="504" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E504" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B505" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E505" s="2"/>
+    </row>
+    <row r="506" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E506" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B507" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E507" s="2"/>
+    </row>
+    <row r="508" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E508" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="I508"/>
+      <c r="J508"/>
+      <c r="K508"/>
+      <c r="L508"/>
+      <c r="M508"/>
+    </row>
+    <row r="509" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A509"/>
+      <c r="B509" s="12"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="14"/>
+      <c r="E509" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="F509" s="15"/>
+      <c r="G509" s="16"/>
+      <c r="H509" s="17"/>
+      <c r="I509"/>
+      <c r="J509"/>
+      <c r="K509"/>
+      <c r="L509"/>
+      <c r="M509"/>
+    </row>
+    <row r="510" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A510"/>
+      <c r="B510" s="12"/>
+      <c r="C510" s="13"/>
+      <c r="D510" s="14"/>
+      <c r="E510" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="F510" s="15"/>
+      <c r="G510" s="16"/>
+      <c r="H510" s="17"/>
+    </row>
+    <row r="511" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E511" s="11" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="503" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A503"/>
-      <c r="B503" s="12"/>
-      <c r="C503" s="13"/>
-      <c r="D503" s="14"/>
-      <c r="E503" s="11" t="s">
+    <row r="512" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E512" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="F503" s="15"/>
-      <c r="G503" s="16"/>
-      <c r="H503" s="17"/>
-      <c r="I503"/>
-      <c r="J503"/>
-      <c r="K503"/>
-      <c r="L503"/>
-      <c r="M503"/>
-    </row>
-    <row r="504" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A504"/>
-      <c r="B504" s="12"/>
-      <c r="C504" s="13"/>
-      <c r="D504" s="14"/>
-      <c r="E504" s="11" t="s">
+    </row>
+    <row r="513" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E513" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="F504" s="15"/>
-      <c r="G504" s="16"/>
-      <c r="H504" s="17"/>
-      <c r="I504"/>
-      <c r="J504"/>
-      <c r="K504"/>
-      <c r="L504"/>
-      <c r="M504"/>
-    </row>
-    <row r="505" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E505" s="11" t="s">
+    </row>
+    <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E514" s="18" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="506" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E506" s="11" t="s">
+    <row r="515" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E515" s="18" t="s">
         <v>795</v>
-      </c>
-    </row>
-    <row r="507" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E507" s="11" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="508" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E508" s="18" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="509" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E509" s="18" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="510" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B510" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="E510" s="2"/>
-    </row>
-    <row r="511" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E511" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="512" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E512" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="513" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E513" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="514" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E514" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="515" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E515" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="516" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B516" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="E516" s="1"/>
+        <v>546</v>
+      </c>
+      <c r="E516" s="2"/>
     </row>
     <row r="517" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E517" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="518" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E518" s="2" t="s">
-        <v>673</v>
+        <v>309</v>
       </c>
     </row>
     <row r="519" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E519" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="520" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E520" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="521" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B521" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="E521" s="2"/>
+      <c r="E521" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="522" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E522" s="2" t="s">
-        <v>675</v>
-      </c>
+      <c r="B522" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E522" s="1"/>
     </row>
     <row r="523" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B523" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="E523" s="2"/>
+      <c r="E523" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="524" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E524" s="2" t="s">
-        <v>318</v>
+        <v>670</v>
       </c>
     </row>
     <row r="525" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B525" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="E525" s="2"/>
+      <c r="E525" s="2" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="526" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E526" s="1" t="s">
-        <v>677</v>
+      <c r="E526" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="527" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B527" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="E527" s="1"/>
+        <v>671</v>
+      </c>
+      <c r="E527" s="2"/>
     </row>
     <row r="528" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E528" s="4" t="s">
-        <v>319</v>
+      <c r="E528" s="2" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="529" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E529" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="B529" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E529" s="2"/>
     </row>
     <row r="530" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E530" s="1" t="s">
-        <v>321</v>
+      <c r="E530" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="531" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E531" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="B531" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E531" s="2"/>
     </row>
     <row r="532" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E532" s="1" t="s">
-        <v>323</v>
+        <v>674</v>
       </c>
     </row>
     <row r="533" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E533" s="2" t="s">
-        <v>324</v>
-      </c>
+      <c r="B533" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E533" s="1"/>
     </row>
     <row r="534" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E534" s="1" t="s">
-        <v>325</v>
+      <c r="E534" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="535" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E535" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="536" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E536" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="537" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E537" s="1" t="s">
-        <v>328</v>
+      <c r="E537" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="538" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E538" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="539" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E539" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="540" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E540" s="2" t="s">
-        <v>331</v>
+      <c r="E540" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="541" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E541" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="542" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B542" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="E542" s="1"/>
+      <c r="E542" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="543" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E543" s="2" t="s">
-        <v>679</v>
+      <c r="E543" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="544" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B544" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="E544" s="2"/>
+      <c r="E544" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="545" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E545" s="2" t="s">
-        <v>597</v>
+        <v>328</v>
       </c>
     </row>
     <row r="546" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B546" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="E546" s="2"/>
+      <c r="E546" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="547" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E547" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="548" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E548" s="1" t="s">
-        <v>334</v>
-      </c>
+      <c r="B548" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E548" s="1"/>
     </row>
     <row r="549" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E549" s="1" t="s">
-        <v>336</v>
+      <c r="E549" s="2" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="550" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E550" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="B550" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E550" s="2"/>
     </row>
     <row r="551" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E551" s="2" t="s">
-        <v>681</v>
+        <v>594</v>
       </c>
     </row>
     <row r="552" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E552" s="1" t="s">
-        <v>337</v>
-      </c>
+      <c r="B552" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="E552" s="2"/>
     </row>
     <row r="553" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E553" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="554" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E554" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="555" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E555" s="2" t="s">
-        <v>340</v>
+      <c r="E555" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="556" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E556" s="2" t="s">
-        <v>341</v>
+      <c r="E556" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="557" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E557" s="2" t="s">
-        <v>342</v>
+        <v>678</v>
       </c>
     </row>
     <row r="558" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E558" s="2" t="s">
-        <v>343</v>
+      <c r="E558" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="559" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E559" s="2" t="s">
-        <v>344</v>
+      <c r="E559" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="560" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B560" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="E560" s="2"/>
+      <c r="E560" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="561" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E561" s="1" t="s">
-        <v>683</v>
+      <c r="E561" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="562" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B562" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="E562" s="1"/>
+      <c r="E562" s="2" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="563" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E563" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="564" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E564" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="565" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E565" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="566" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B566" s="5" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E566" s="2"/>
     </row>
     <row r="567" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E567" s="2" t="s">
-        <v>348</v>
+      <c r="E567" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="568" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E568" s="1" t="s">
-        <v>685</v>
-      </c>
+      <c r="B568" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E568" s="1"/>
     </row>
     <row r="569" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E569" s="1" t="s">
-        <v>605</v>
+      <c r="E569" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="570" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B570" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="E570" s="1"/>
-    </row>
-    <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C571" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="E571" s="1"/>
-    </row>
-    <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C572" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="E572" s="1"/>
+      <c r="E570" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="571" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E571" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="572" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B572" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="E572" s="2"/>
     </row>
     <row r="573" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E573" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="574" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B574" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="E574" s="1"/>
-    </row>
-    <row r="575" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C575" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="E575" s="1"/>
-    </row>
-    <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C576" s="7" t="s">
-        <v>868</v>
+      <c r="E574" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="575" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E575" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="576" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B576" s="5" t="s">
+        <v>683</v>
       </c>
       <c r="E576" s="1"/>
     </row>
     <row r="577" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C577" s="8"/>
-      <c r="E577" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E578" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="C577" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E577" s="1"/>
+    </row>
+    <row r="578" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C578" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="E578" s="1"/>
     </row>
     <row r="579" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E579" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="580" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E580" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E581" s="2" t="s">
-        <v>352</v>
-      </c>
+      <c r="B580" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="E580" s="1"/>
+    </row>
+    <row r="581" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C581" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="E581" s="1"/>
     </row>
     <row r="582" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B582" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="E582" s="2"/>
+      <c r="C582" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E582" s="1"/>
     </row>
     <row r="583" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C583" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="E583" s="2"/>
-    </row>
-    <row r="584" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C584" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="E584" s="2"/>
+      <c r="C583" s="8"/>
+      <c r="E583" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="584" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E584" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="585" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E585" s="2" t="s">
-        <v>869</v>
+        <v>348</v>
       </c>
     </row>
     <row r="586" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B586" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="E586" s="2"/>
+      <c r="E586" s="2" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="587" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E587" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="588" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="588" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B588" s="5" t="s">
-        <v>598</v>
+        <v>867</v>
       </c>
       <c r="E588" s="2"/>
     </row>
-    <row r="589" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E589" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="590" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E590" s="2" t="s">
-        <v>353</v>
-      </c>
+    <row r="589" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C589" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E589" s="2"/>
+    </row>
+    <row r="590" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C590" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="E590" s="2"/>
     </row>
     <row r="591" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E591" s="2" t="s">
-        <v>354</v>
+        <v>866</v>
       </c>
     </row>
     <row r="592" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B592" s="5" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E592" s="2"/>
     </row>
     <row r="593" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E593" s="2" t="s">
-        <v>600</v>
+        <v>688</v>
       </c>
     </row>
     <row r="594" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B594" s="5" t="s">
-        <v>881</v>
+        <v>595</v>
       </c>
       <c r="E594" s="2"/>
     </row>
-    <row r="595" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C595" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="E595" s="2"/>
-    </row>
-    <row r="596" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C596" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="E596" s="2"/>
+    <row r="595" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E595" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="596" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E596" s="2" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="597" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E597" s="4" t="s">
-        <v>355</v>
+      <c r="E597" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="598" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E598" s="1" t="s">
-        <v>356</v>
-      </c>
+      <c r="B598" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="E598" s="2"/>
     </row>
     <row r="599" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E599" s="2" t="s">
-        <v>357</v>
+        <v>597</v>
       </c>
     </row>
     <row r="600" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E600" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="601" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E601" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E602" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="603" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E603" s="1" t="s">
-        <v>361</v>
-      </c>
+      <c r="B600" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="E600" s="2"/>
+    </row>
+    <row r="601" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C601" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="E601" s="2"/>
+    </row>
+    <row r="602" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C602" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="E602" s="2"/>
+    </row>
+    <row r="603" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C603" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="E603" s="2"/>
     </row>
     <row r="604" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E604" s="1" t="s">
-        <v>362</v>
+      <c r="E604" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="605" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E605" s="1" t="s">
-        <v>873</v>
+        <v>354</v>
       </c>
     </row>
     <row r="606" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E606" s="1" t="s">
-        <v>364</v>
+        <v>901</v>
       </c>
     </row>
     <row r="607" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E607" s="1" t="s">
-        <v>363</v>
+      <c r="E607" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="608" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E608" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E609" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E610" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E611" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E612" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E613" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E614" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E615" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E616" s="30" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E617" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A618" s="3"/>
+      <c r="B618" s="5"/>
+      <c r="C618" s="7"/>
+      <c r="D618" s="6"/>
+      <c r="E618" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F618" s="3"/>
+      <c r="G618" s="3"/>
+      <c r="H618" s="3"/>
+      <c r="I618" s="3"/>
+      <c r="J618" s="29"/>
+      <c r="K618" s="29"/>
+      <c r="L618" s="29"/>
+      <c r="M618" s="29"/>
+    </row>
+    <row r="619" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A619" s="3"/>
+      <c r="B619" s="5"/>
+      <c r="C619" s="7"/>
+      <c r="D619" s="6"/>
+      <c r="E619" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F619" s="3"/>
+      <c r="G619" s="3"/>
+      <c r="H619" s="3"/>
+      <c r="I619" s="29"/>
+      <c r="J619" s="29"/>
+      <c r="K619" s="29"/>
+      <c r="L619" s="29"/>
+      <c r="M619" s="29"/>
+    </row>
+    <row r="620" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E620" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="H620" s="28"/>
+      <c r="I620" s="29"/>
+    </row>
+    <row r="621" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E621" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="H621" s="28"/>
+    </row>
+    <row r="622" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A622"/>
+      <c r="B622" s="12"/>
+      <c r="C622" s="13"/>
+      <c r="E622" s="18" t="s">
+        <v>871</v>
+      </c>
+      <c r="F622" s="23"/>
+      <c r="G622" s="27"/>
+    </row>
+    <row r="623" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A623"/>
+      <c r="B623" s="12"/>
+      <c r="C623" s="13"/>
+      <c r="E623" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="F623" s="23"/>
+      <c r="G623" s="27"/>
+    </row>
+    <row r="624" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E624" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="625" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E625" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="609" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E609" s="3" t="s">
+    <row r="626" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E626" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="627" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E627" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="628" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E628" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="629" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E629" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="630" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B630" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E630" s="2"/>
+    </row>
+    <row r="631" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E631" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="610" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E610" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="611" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E611" s="3" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="612" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E612" s="3" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="613" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A613"/>
-      <c r="B613" s="12"/>
-      <c r="C613" s="13"/>
-      <c r="D613" s="6"/>
-      <c r="E613" s="18" t="s">
-        <v>874</v>
-      </c>
-      <c r="F613" s="23"/>
-      <c r="G613" s="27"/>
-      <c r="H613" s="28"/>
-      <c r="I613" s="29"/>
-      <c r="J613" s="29"/>
-      <c r="K613" s="29"/>
-      <c r="L613" s="29"/>
-      <c r="M613" s="29"/>
-    </row>
-    <row r="614" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A614"/>
-      <c r="B614" s="12"/>
-      <c r="C614" s="13"/>
-      <c r="D614" s="6"/>
-      <c r="E614" s="18" t="s">
-        <v>889</v>
-      </c>
-      <c r="F614" s="23"/>
-      <c r="G614" s="27"/>
-      <c r="H614" s="28"/>
-      <c r="I614" s="29"/>
-      <c r="J614" s="29"/>
-      <c r="K614" s="29"/>
-      <c r="L614" s="29"/>
-      <c r="M614" s="29"/>
-    </row>
-    <row r="615" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E615" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="616" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E616" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="617" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E617" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="618" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E618" s="2" t="s">
+    <row r="632" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E632" s="2" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="619" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E619" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="620" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B620" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="E620" s="2"/>
-    </row>
-    <row r="621" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E621" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="622" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E622" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="623" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E623" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="624" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B624" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="E624" s="2"/>
-    </row>
-    <row r="625" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E625" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="626" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E626" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="627" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E627" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="628" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E628" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="629" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E629" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="630" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E630" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="631" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E631" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="632" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E632" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="633" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E633" s="2" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="634" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E634" s="1" t="s">
-        <v>383</v>
-      </c>
+      <c r="B634" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E634" s="2"/>
     </row>
     <row r="635" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E635" s="2" t="s">
-        <v>384</v>
+      <c r="E635" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="636" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E636" s="2" t="s">
-        <v>385</v>
+      <c r="E636" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="637" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B637" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="E637" s="2"/>
+      <c r="E637" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="638" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E638" s="4" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="639" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E639" s="3" t="s">
-        <v>747</v>
+      <c r="E638" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="639" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E639" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="640" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E640" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="641" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E641" s="1" t="s">
-        <v>387</v>
+      <c r="E641" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="642" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B642" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="E642" s="1"/>
+      <c r="E642" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="643" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E643" s="1" t="s">
-        <v>723</v>
+      <c r="E643" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="644" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E644" s="1" t="s">
-        <v>722</v>
+        <v>381</v>
       </c>
     </row>
     <row r="645" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B645" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="E645" s="1"/>
+      <c r="E645" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="646" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E646" s="1" t="s">
-        <v>388</v>
+      <c r="E646" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="647" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E647" s="1" t="s">
-        <v>389</v>
-      </c>
+      <c r="B647" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="E647" s="2"/>
     </row>
     <row r="648" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B648" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="E648" s="1"/>
-    </row>
-    <row r="649" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D649" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="E649" s="1"/>
+      <c r="E648" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="649" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E649" s="3" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="650" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E650" s="1" t="s">
-        <v>390</v>
+      <c r="E650" s="2" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="651" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E651" s="2" t="s">
-        <v>391</v>
+      <c r="E651" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="652" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E652" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="B652" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="E652" s="1"/>
     </row>
     <row r="653" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E653" s="1" t="s">
-        <v>393</v>
+        <v>720</v>
       </c>
     </row>
     <row r="654" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E654" s="2" t="s">
-        <v>394</v>
+      <c r="E654" s="1" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="655" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E655" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="B655" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E655" s="1"/>
     </row>
     <row r="656" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E656" s="2" t="s">
-        <v>396</v>
+      <c r="E656" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="657" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E657" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="658" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E658" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="B658" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="E658" s="1"/>
     </row>
     <row r="659" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E659" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="D659" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E659" s="1"/>
     </row>
     <row r="660" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E660" s="1" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="661" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E661" s="1" t="s">
-        <v>401</v>
+      <c r="E661" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="662" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E662" s="2" t="s">
-        <v>402</v>
+      <c r="E662" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="663" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E663" s="2" t="s">
-        <v>403</v>
+      <c r="E663" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="664" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E664" s="2" t="s">
-        <v>404</v>
+      <c r="E664" s="32" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="665" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E665" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="666" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B666" s="5" t="s">
+      <c r="E666" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="667" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E667" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="668" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E668" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="669" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E669" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="670" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E670" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="671" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E671" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="672" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E672" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E673" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E674" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E675" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E676" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="677" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E677" s="32" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="678" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B678" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="E678" s="2"/>
+    </row>
+    <row r="679" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D679" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="E679" s="2"/>
+    </row>
+    <row r="680" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E680" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="J680"/>
+      <c r="K680"/>
+      <c r="L680"/>
+      <c r="M680"/>
+    </row>
+    <row r="681" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B681" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="E681" s="2"/>
+      <c r="J681"/>
+      <c r="K681"/>
+      <c r="L681"/>
+      <c r="M681"/>
+    </row>
+    <row r="682" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C682" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="E666" s="2"/>
-    </row>
-    <row r="667" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D667" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="E667" s="2"/>
-    </row>
-    <row r="668" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E668" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="669" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B669" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="E669" s="2"/>
-    </row>
-    <row r="670" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C670" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="E670" s="2"/>
-    </row>
-    <row r="671" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D671" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="E671" s="2"/>
-    </row>
-    <row r="672" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E672" s="24" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="673" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E673" s="11" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="674" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E674" s="11" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="675" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A675"/>
-      <c r="B675" s="12"/>
-      <c r="C675" s="13"/>
-      <c r="D675" s="14"/>
-      <c r="E675" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="F675" s="15"/>
-      <c r="G675" s="16"/>
-      <c r="H675" s="17"/>
-      <c r="I675"/>
-      <c r="J675"/>
-      <c r="K675"/>
-      <c r="L675"/>
-      <c r="M675"/>
-    </row>
-    <row r="676" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A676"/>
-      <c r="B676" s="12"/>
-      <c r="C676" s="13"/>
-      <c r="D676" s="14"/>
-      <c r="E676" s="11" t="s">
-        <v>803</v>
-      </c>
-      <c r="F676" s="15"/>
-      <c r="G676" s="16"/>
-      <c r="H676" s="17"/>
-      <c r="I676"/>
-      <c r="J676"/>
-      <c r="K676"/>
-      <c r="L676"/>
-      <c r="M676"/>
-    </row>
-    <row r="677" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A677"/>
-      <c r="B677" s="12"/>
-      <c r="C677" s="13"/>
-      <c r="D677" s="14"/>
-      <c r="E677" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="F677" s="15"/>
-      <c r="G677" s="16"/>
-      <c r="H677" s="17"/>
-      <c r="I677"/>
-      <c r="J677"/>
-      <c r="K677"/>
-      <c r="L677"/>
-      <c r="M677"/>
-    </row>
-    <row r="678" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A678"/>
-      <c r="B678" s="12"/>
-      <c r="C678" s="13"/>
-      <c r="D678" s="14"/>
-      <c r="E678" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="F678" s="23"/>
-      <c r="G678" s="16"/>
-      <c r="H678" s="17"/>
-      <c r="I678"/>
-      <c r="J678"/>
-      <c r="K678"/>
-      <c r="L678"/>
-      <c r="M678"/>
-    </row>
-    <row r="679" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E679" s="11" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="680" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E680" s="11" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="681" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E681" s="11" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="682" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E682" s="11" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="683" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E683" s="11" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="684" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E684" s="11" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="685" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E682" s="2"/>
+      <c r="I682"/>
+      <c r="J682"/>
+      <c r="K682"/>
+      <c r="L682"/>
+      <c r="M682"/>
+    </row>
+    <row r="683" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D683" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="E683" s="2"/>
+      <c r="I683"/>
+      <c r="J683"/>
+      <c r="K683"/>
+      <c r="L683"/>
+      <c r="M683"/>
+    </row>
+    <row r="684" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E684" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="I684"/>
+    </row>
+    <row r="685" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E685" s="11" t="s">
-        <v>812</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="H685" s="17"/>
+      <c r="I685"/>
     </row>
     <row r="686" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E686" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="H686" s="17"/>
+    </row>
+    <row r="687" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A687"/>
+      <c r="B687" s="12"/>
+      <c r="C687" s="13"/>
+      <c r="D687" s="14"/>
+      <c r="E687" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="F687" s="15"/>
+      <c r="G687" s="16"/>
+      <c r="H687" s="17"/>
+    </row>
+    <row r="688" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A688"/>
+      <c r="B688" s="12"/>
+      <c r="C688" s="13"/>
+      <c r="D688" s="14"/>
+      <c r="E688" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="F688" s="15"/>
+      <c r="G688" s="16"/>
+      <c r="H688" s="17"/>
+    </row>
+    <row r="689" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A689"/>
+      <c r="B689" s="12"/>
+      <c r="C689" s="13"/>
+      <c r="D689" s="14"/>
+      <c r="E689" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="F689" s="15"/>
+      <c r="G689" s="16"/>
+    </row>
+    <row r="690" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A690"/>
+      <c r="B690" s="12"/>
+      <c r="C690" s="13"/>
+      <c r="D690" s="14"/>
+      <c r="E690" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F690" s="23"/>
+      <c r="G690" s="16"/>
+    </row>
+    <row r="691" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A691"/>
+      <c r="B691" s="12"/>
+      <c r="C691" s="13"/>
+      <c r="D691" s="14"/>
+      <c r="E691" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="F691" s="23"/>
+      <c r="G691" s="16"/>
+    </row>
+    <row r="692" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E692" s="11" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E693" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E694" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E695" s="11" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E696" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E697" s="11" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E698" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E699" s="11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E700" s="11" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E701" s="11" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E702" s="11" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E703" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E704" s="11" t="s">
         <v>813</v>
-      </c>
-    </row>
-    <row r="687" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E687" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="688" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E688" s="11" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="689" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E689" s="11" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="690" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E690" s="11" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="691" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E691" s="11" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="692" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E692" s="11" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="693" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E693" s="11" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="694" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E694" s="11" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="695" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E695" s="11" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="696" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E696" s="11" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="697" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E697" s="11" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="698" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E698" s="11" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="699" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E699" s="11" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="700" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E700" s="11" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="701" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E701" s="11" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="702" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E702" s="11" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="703" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E703" s="11" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="704" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E704" s="11" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="705" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E705" s="11" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
     </row>
     <row r="706" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E706" s="11" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
     </row>
     <row r="707" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E707" s="11" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
     </row>
     <row r="708" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E708" s="11" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="709" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E709" s="18" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="710" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E710" s="18" t="s">
-        <v>836</v>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="709" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E709" s="11" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="710" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E710" s="11" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="711" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E711" s="11" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
     </row>
     <row r="712" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E712" s="11" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
     </row>
     <row r="713" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E713" s="11" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
     </row>
     <row r="714" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E714" s="11" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
     </row>
     <row r="715" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E715" s="11" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
     </row>
     <row r="716" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E716" s="11" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
     </row>
     <row r="717" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E717" s="11" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
     </row>
     <row r="718" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E718" s="11" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
     </row>
     <row r="719" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E719" s="11" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
     </row>
     <row r="720" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E720" s="11" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="721" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E721" s="32" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="722" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E722" s="11" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="723" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E723" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="724" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E724" s="11" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="725" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E725" s="18" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="726" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E726" s="18" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="727" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E727" s="11" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="728" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E728" s="11" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="729" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E729" s="31" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="730" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E730" s="11" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="731" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E731" s="11" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="732" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E732" s="11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="733" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E733" s="11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="734" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E734" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="735" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E735" s="11" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="736" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E736" s="11" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="737" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E737" s="11" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="738" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E738" s="11" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="739" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E739" s="11" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="740" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E740" s="32" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="741" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E741" s="11" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="721" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E721" s="11" t="s">
+    <row r="742" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E742" s="32" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="743" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E743" s="18" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="722" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E722" s="11" t="s">
+    <row r="744" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E744" s="11" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="723" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E723" s="11" t="s">
+    <row r="745" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E745" s="11" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="724" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E724" s="18" t="s">
+    <row r="746" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E746" s="11" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="725" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E725" s="11" t="s">
+    <row r="747" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E747" s="25" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="748" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E748" s="11" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="726" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E726" s="11" t="s">
+    <row r="749" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E749" s="11" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="727" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E727" s="11" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="728" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E728" s="11" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="729" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E729" s="11" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="730" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B730" s="5" t="s">
+    <row r="750" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B750" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="E750" s="2"/>
+    </row>
+    <row r="751" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E751" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="752" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B752" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E752" s="2"/>
+    </row>
+    <row r="753" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D753" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="E730" s="2"/>
-    </row>
-    <row r="731" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E731" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="732" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B732" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="E732" s="2"/>
-    </row>
-    <row r="733" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D733" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="E733" s="2"/>
-    </row>
-    <row r="734" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E734" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="735" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B735" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E735" s="2"/>
-    </row>
-    <row r="736" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="D736" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="E736" s="2"/>
-    </row>
-    <row r="737" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E737" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="738" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B738" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="E738" s="2"/>
-    </row>
-    <row r="739" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E739" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="740" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B740" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="E740" s="1"/>
-    </row>
-    <row r="741" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E741" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="742" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E742" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="743" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E743" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="744" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E744" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="745" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B745" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="E745" s="2"/>
-    </row>
-    <row r="746" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E746" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="747" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B747" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="E747" s="2"/>
-    </row>
-    <row r="748" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E748" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="749" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E749" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="750" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E750" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="751" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E751" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="752" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E752" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="753" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E753" s="3" t="s">
-        <v>739</v>
-      </c>
+      <c r="E753" s="2"/>
     </row>
     <row r="754" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B754" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="E754" s="2"/>
+      <c r="E754" s="2" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="755" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E755" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="756" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A756"/>
-      <c r="B756" s="12"/>
-      <c r="C756" s="13"/>
-      <c r="D756" s="6"/>
-      <c r="E756" s="18" t="s">
-        <v>866</v>
-      </c>
-      <c r="F756" s="26"/>
-      <c r="G756" s="27"/>
-      <c r="H756" s="28"/>
-      <c r="I756" s="29"/>
-      <c r="J756" s="29"/>
-      <c r="K756" s="29"/>
-      <c r="L756" s="29"/>
-      <c r="M756" s="29"/>
+      <c r="B755" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E755" s="2"/>
+    </row>
+    <row r="756" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="D756" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="E756" s="2"/>
     </row>
     <row r="757" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E757" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="758" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B758" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="E758" s="2"/>
     </row>
     <row r="759" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E759" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="760" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E760" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="760" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B760" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="E760" s="1"/>
+    </row>
+    <row r="761" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A761" s="3"/>
+      <c r="B761" s="5"/>
+      <c r="C761" s="7"/>
+      <c r="D761" s="6"/>
+      <c r="E761" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F761" s="3"/>
+      <c r="G761" s="3"/>
+      <c r="H761" s="3"/>
+      <c r="I761" s="3"/>
+      <c r="J761" s="3"/>
+      <c r="K761" s="29"/>
+      <c r="L761" s="29"/>
+      <c r="M761" s="29"/>
+    </row>
+    <row r="762" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E762" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="763" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E763" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="J763" s="29"/>
+    </row>
+    <row r="764" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E764" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="765" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B765" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="E765" s="2"/>
+    </row>
+    <row r="766" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E766" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="I766" s="29"/>
+    </row>
+    <row r="767" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B767" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E767" s="2"/>
+    </row>
+    <row r="768" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E768" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E769" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E770" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E771" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E772" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E773" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B774" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E774" s="2"/>
+      <c r="H774" s="28"/>
+    </row>
+    <row r="775" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E775" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A776"/>
+      <c r="B776" s="12"/>
+      <c r="C776" s="13"/>
+      <c r="E776" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="F776" s="26"/>
+      <c r="G776" s="27"/>
+    </row>
+    <row r="777" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E777" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B778" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="E778" s="2"/>
+    </row>
+    <row r="779" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E779" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E780" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E781" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B782" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E782" s="1"/>
+    </row>
+    <row r="783" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E783" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B784" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E784" s="1"/>
+    </row>
+    <row r="785" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E785" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="761" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E761" s="1" t="s">
+    <row r="786" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E786" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="762" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B762" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="E762" s="1"/>
-    </row>
-    <row r="763" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E763" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="764" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B764" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="E764" s="1"/>
-    </row>
-    <row r="765" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E765" s="1" t="s">
+    <row r="787" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E787" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="766" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E766" s="1" t="s">
+    <row r="788" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E788" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="767" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E767" s="2" t="s">
+    <row r="789" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E789" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="768" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E768" s="2" t="s">
+    <row r="790" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E790" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="769" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E769" s="2" t="s">
+    <row r="791" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E791" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="770" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E770" s="1" t="s">
+    <row r="792" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E792" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="771" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E771" s="2" t="s">
+    <row r="793" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E793" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="772" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E772" s="1" t="s">
+    <row r="794" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E794" s="11" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="795" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E795" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="773" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E773" s="1" t="s">
+    <row r="796" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E796" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="774" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E774" s="11" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="775" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E775" s="1" t="s">
+    <row r="797" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E797" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="776" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E776" s="1" t="s">
+    <row r="798" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E798" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="777" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E777" s="1" t="s">
+    <row r="799" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E799" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="778" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E778" s="1" t="s">
+    <row r="800" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E800" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="779" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E779" s="1" t="s">
+    <row r="801" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E801" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="780" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E780" s="1" t="s">
+    <row r="802" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E802" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="781" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E781" s="1" t="s">
+    <row r="803" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E803" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="782" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E782" s="2" t="s">
+    <row r="804" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E804" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="783" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E783" s="2" t="s">
+    <row r="805" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E805" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="784" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E784" s="2" t="s">
+    <row r="806" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E806" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="785" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E785" s="2" t="s">
+    <row r="807" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E807" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="786" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E786" s="2" t="s">
+    <row r="808" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E808" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="809" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E809" s="2" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="787" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E787" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="788" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E788" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="789" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E789" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="790" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E790" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="791" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E791" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="792" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E792" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="793" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E793" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="794" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E794" s="2" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="795" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E795" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="796" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E796" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="797" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B797" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="E797" s="2"/>
-    </row>
-    <row r="798" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E798" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="799" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E799" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="800" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B800" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E800" s="2"/>
-    </row>
-    <row r="801" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E801" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="802" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E802" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="803" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E803" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="804" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E804" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="805" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E805" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="806" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E806" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="807" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E807" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="808" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E808" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="809" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E809" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="810" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E810" s="2" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="811" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E811" s="2" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="812" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E812" s="2" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="813" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E813" s="2" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="814" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E814" s="2" t="s">
-        <v>458</v>
+        <v>873</v>
       </c>
     </row>
     <row r="815" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E815" s="2" t="s">
-        <v>604</v>
+        <v>440</v>
       </c>
     </row>
     <row r="816" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E816" s="2" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="817" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E817" s="2" t="s">
-        <v>460</v>
-      </c>
+      <c r="B817" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="E817" s="2"/>
     </row>
     <row r="818" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E818" s="2" t="s">
-        <v>461</v>
+      <c r="E818" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="819" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E819" s="1" t="s">
-        <v>462</v>
+      <c r="E819" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="820" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E820" s="1" t="s">
-        <v>463</v>
-      </c>
+      <c r="B820" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E820" s="2"/>
     </row>
     <row r="821" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E821" s="1" t="s">
-        <v>464</v>
+      <c r="E821" s="2" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="822" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E822" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="823" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E823" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="824" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B824" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="E824" s="2"/>
-    </row>
-    <row r="825" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C825" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="E825" s="2"/>
-    </row>
-    <row r="826" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C826" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="E826" s="2"/>
+      <c r="E822" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="823" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E823" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="824" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E824" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="825" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E825" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="826" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E826" s="1" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="827" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E827" s="1" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
     </row>
     <row r="828" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E828" s="2" t="s">
-        <v>468</v>
+      <c r="E828" s="1" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="829" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E829" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="830" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E830" s="2" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="831" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E831" s="2" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="832" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E832" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="833" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E833" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="834" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E834" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="835" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E835" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="836" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E836" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="837" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E837" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="838" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E838" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="839" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E839" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="840" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E840" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="841" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E841" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="842" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E842" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="843" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E843" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="844" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B844" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="E844" s="2"/>
+    </row>
+    <row r="845" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C845" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="E845" s="2"/>
+    </row>
+    <row r="846" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C846" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="E846" s="2"/>
+    </row>
+    <row r="847" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E847" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="848" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E848" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="849" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E849" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="850" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E850" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="851" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E851" s="30" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="852" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E852" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="853" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E853" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="854" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E854" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="855" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E855" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="833" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E833" s="2" t="s">
+    <row r="856" spans="5:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E856" s="30" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="857" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E857" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="834" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E834" s="2" t="s">
+    <row r="858" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E858" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="835" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E835" s="1" t="s">
+    <row r="859" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E859" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="836" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E836" s="1" t="s">
+    <row r="860" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E860" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="837" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E837" s="1" t="s">
+    <row r="861" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E861" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="838" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E838" s="2" t="s">
+    <row r="862" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E862" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="839" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E839" s="2" t="s">
+    <row r="863" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E863" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="840" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E840" s="2" t="s">
+    <row r="864" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E864" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="865" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E865" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="866" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E866" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="841" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E841" s="1" t="s">
+    <row r="867" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E867" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="842" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E842" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="843" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E843" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="844" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E844" s="1" t="s">
+    <row r="868" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E868" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="869" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E869" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="845" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E845" s="1" t="s">
+    <row r="870" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E870" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="871" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E871" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="846" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E846" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="847" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E847" s="2" t="s">
+    <row r="872" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E872" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="848" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E848" s="2" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="849" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E849" s="2" t="s">
+    <row r="873" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E873" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="850" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E850" s="2" t="s">
+    <row r="874" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E874" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="851" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E851" s="2" t="s">
+    <row r="875" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E875" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="852" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E852" s="2" t="s">
+    <row r="876" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E876" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="853" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E853" s="2" t="s">
+    <row r="877" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E877" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="878" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E878" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="854" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E854" s="2" t="s">
+    <row r="879" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E879" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="855" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E855" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="856" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E856" s="2" t="s">
+    <row r="880" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E880" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="857" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E857" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="858" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E858" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="859" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E859" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="860" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E860" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="861" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E861" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="862" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B862" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="E862" s="2"/>
-    </row>
-    <row r="863" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E863" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="864" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E864" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="865" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E865" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="866" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B866" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="E866" s="2"/>
-    </row>
-    <row r="867" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E867" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="868" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E868" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="869" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E869" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="870" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E870" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="871" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E871" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="872" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E872" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="873" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E873" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="874" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E874" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="875" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E875" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="876" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E876" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="877" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E877" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="878" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E878" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="879" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E879" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="880" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E880" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="881" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E881" s="2" t="s">
-        <v>514</v>
+    <row r="881" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E881" s="30" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="882" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E882" s="2" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
     </row>
     <row r="883" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E883" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="884" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E884" s="1" t="s">
-        <v>517</v>
+      <c r="E883" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="884" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E884" s="30" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="885" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E885" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="886" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E886" s="1" t="s">
-        <v>519</v>
-      </c>
+      <c r="E885" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="886" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B886" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="E886" s="2"/>
     </row>
     <row r="887" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B887" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="E887" s="1"/>
+      <c r="E887" s="1" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="888" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E888" s="2" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
     </row>
     <row r="889" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E889" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="890" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B890" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E890" s="2"/>
+    </row>
+    <row r="891" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E891" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="892" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E892" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="893" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E893" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="894" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E894" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="895" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E895" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="896" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E896" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="897" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E897" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="898" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E898" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="899" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E899" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="900" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E900" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="901" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E901" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="902" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E902" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="903" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E903" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="904" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E904" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="905" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E905" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="906" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E906" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="907" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E907" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="908" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E908" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="909" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E909" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="910" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E910" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="911" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B911" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="E911" s="1"/>
+    </row>
+    <row r="912" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E912" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="913" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E913" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="914" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E914" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="915" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E915" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="890" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E890" s="1" t="s">
+    <row r="916" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E916" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="891" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E891" s="1" t="s">
+    <row r="917" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E917" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="918" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E918" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="892" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E892" s="2" t="s">
+    <row r="919" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E919" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="893" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E893" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="894" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E894" s="2" t="s">
+    <row r="920" spans="5:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E920" s="2" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="895" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E895" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="896" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="E896" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
   </sheetData>
